--- a/data/tbl_dfa256/xlsx/DFA256FY17-18.xlsx
+++ b/data/tbl_dfa256/xlsx/DFA256FY17-18.xlsx
@@ -29,12 +29,11 @@
     <definedName name="DateRange" localSheetId="0">OFFSET('[1]Report View'!$B$3,0,0,COUNTIF('[1]Report View'!$B$3:$B$14,"&lt;&gt;N/A"),1)</definedName>
     <definedName name="DateRange">OFFSET('Report View'!$B$3,0,0,COUNTIF('Report View'!$B$3:$B$14,"&lt;&gt;N/A"),1)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">DataDictionary!$A$2:$D$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Release Summary'!$A$1:$C$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Report View'!$C$1:$Q$36</definedName>
     <definedName name="TitleRegion1.a2.d32.2" localSheetId="0">[1]!DataDictionary[[#Headers],[Cell]]</definedName>
     <definedName name="TitleRegion1.a2.d32.2">DataDictionary[[#Headers],[Cell]]</definedName>
     <definedName name="TitleRegion1.a4.c16.1">ReleaseSummary[[#Headers],[REPORT MONTH]]</definedName>
-    <definedName name="TitleRegion1.A6.AK537.4">Data!$A$6</definedName>
+    <definedName name="TitleRegion1.A6.AK596.4">Data!$A$6</definedName>
     <definedName name="Z_53B10681_B06D_11D2_92B8_00104BCA8B71_.wvu.Cols" localSheetId="3" hidden="1">'[2]ACL VALIDATIONS 07-15'!#REF!</definedName>
     <definedName name="Z_53B10681_B06D_11D2_92B8_00104BCA8B71_.wvu.Cols" localSheetId="1" hidden="1">'[3]ACL VALIDATIONS 07-15'!#REF!</definedName>
     <definedName name="Z_53B10681_B06D_11D2_92B8_00104BCA8B71_.wvu.Cols" hidden="1">'[2]ACL VALIDATIONS 07-15'!#REF!</definedName>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="274">
   <si>
     <t>Food Stamp Program</t>
   </si>
@@ -919,7 +918,7 @@
     <numFmt numFmtId="168" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="169" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,12 +1129,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1681,7 +1674,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -2515,18 +2508,6 @@
     <xf numFmtId="1" fontId="23" fillId="5" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2537,57 +2518,20 @@
     <cellStyle name="Normal 79" xfId="3"/>
     <cellStyle name="Normal 81" xfId="4"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="67">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4009,6 +3953,57 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -4040,6 +4035,44 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4519,11 +4552,11 @@
       <sheetName val="Mar County"/>
       <sheetName val="Mar Edits"/>
       <sheetName val="Mar Intake"/>
-      <sheetName val="COMPARISONS COUNTY"/>
-      <sheetName val="COMPARISON CELLS"/>
       <sheetName val="Apr County"/>
       <sheetName val="Apr Edits"/>
       <sheetName val="Apr Intake"/>
+      <sheetName val="COMPARISONS COUNTY"/>
+      <sheetName val="COMPARISON CELLS"/>
       <sheetName val="May County"/>
       <sheetName val="May Edits"/>
       <sheetName val="May Intake"/>
@@ -4706,8 +4739,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="B12" t="str">
-            <v>N/A</v>
+          <cell r="B12">
+            <v>43191</v>
           </cell>
         </row>
         <row r="13">
@@ -5043,40 +5076,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ReleaseSummary" displayName="ReleaseSummary" ref="A4:C16" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowBorderDxfId="48" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ReleaseSummary" displayName="ReleaseSummary" ref="A4:C16" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowBorderDxfId="54" tableBorderDxfId="55">
   <autoFilter ref="A4:C16">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="REPORT MONTH" dataDxfId="47"/>
-    <tableColumn id="2" name="RELEASE DATE" dataDxfId="46"/>
-    <tableColumn id="3" name="COMMENTS  a/" dataDxfId="45"/>
+    <tableColumn id="1" name="REPORT MONTH" dataDxfId="53"/>
+    <tableColumn id="2" name="RELEASE DATE" dataDxfId="52"/>
+    <tableColumn id="3" name="COMMENTS  a/" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DataDictionary" displayName="DataDictionary" ref="A2:D32" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowBorderDxfId="57" tableBorderDxfId="58" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DataDictionary" displayName="DataDictionary" ref="A2:D32" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowBorderDxfId="63" tableBorderDxfId="64" totalsRowBorderDxfId="62">
   <autoFilter ref="A2:D32"/>
   <sortState ref="A3:D32">
     <sortCondition ref="A2:A32"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Cell" dataDxfId="55"/>
-    <tableColumn id="2" name="Part" dataDxfId="54"/>
-    <tableColumn id="3" name="Item " dataDxfId="53"/>
-    <tableColumn id="4" name="Column" dataDxfId="52"/>
+    <tableColumn id="1" name="Cell" dataDxfId="61"/>
+    <tableColumn id="2" name="Part" dataDxfId="60"/>
+    <tableColumn id="3" name="Item " dataDxfId="59"/>
+    <tableColumn id="4" name="Column" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DataTable" displayName="DataTable" ref="A6:AK537" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="39" headerRowCellStyle="Normal 81" dataCellStyle="Normal 81">
-  <autoFilter ref="A6:AK537"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="DataTable" displayName="DataTable" ref="A6:AK596" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39" headerRowCellStyle="Normal 81" dataCellStyle="Normal 81">
+  <autoFilter ref="A6:AK596"/>
   <tableColumns count="37">
     <tableColumn id="1" name="Date" dataDxfId="38" dataCellStyle="Normal 81"/>
     <tableColumn id="2" name="County Name" dataDxfId="37" dataCellStyle="Normal 81"/>
@@ -5119,7 +5152,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="DFA256 FY17-18 Data updated through March 2018"/>
+      <x14:table altText="DFA256 FY17-18 Data updated through April 2018"/>
     </ext>
   </extLst>
 </table>
@@ -5998,8 +6031,12 @@
       <c r="A14" s="233">
         <v>43191</v>
       </c>
-      <c r="B14" s="242"/>
-      <c r="C14" s="243"/>
+      <c r="B14" s="242">
+        <v>43255</v>
+      </c>
+      <c r="C14" s="243" t="s">
+        <v>268</v>
+      </c>
       <c r="D14" s="240"/>
       <c r="E14" s="241"/>
     </row>
@@ -6031,22 +6068,22 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:C10 B12:C16 B11">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="46" priority="3">
       <formula>$B7=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C6">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>$B5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>$B11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial"&amp;11STATE OF CALIFORNIA
 HEALTH AND HUMAN SERVICES AGENCY&amp;R&amp;"Arial"&amp;11CALIFORNIA DEPARTMENT OF SOCIAL SERVICES
@@ -6485,7 +6522,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="57" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -7802,7 +7839,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="28">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -7972,8 +8009,8 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>164</v>
+      <c r="B12" s="17">
+        <v>43191</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>21</v>
@@ -7986,43 +8023,43 @@
         <v>1</v>
       </c>
       <c r="G12" s="62">
-        <f t="array" ref="G12">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0)))</f>
-        <v>225096</v>
+        <f t="array" ref="G12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0)))</f>
+        <v>220596</v>
       </c>
       <c r="H12" s="63">
         <v>2</v>
       </c>
       <c r="I12" s="62">
-        <f t="array" ref="I12">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0)))</f>
-        <v>4622</v>
+        <f t="array" ref="I12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0)))</f>
+        <v>4566</v>
       </c>
       <c r="J12" s="63">
         <v>3</v>
       </c>
       <c r="K12" s="62">
-        <f t="array" ref="K12">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0)))</f>
-        <v>252</v>
+        <f t="array" ref="K12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0)))</f>
+        <v>251</v>
       </c>
       <c r="L12" s="63">
         <v>4</v>
       </c>
       <c r="M12" s="62">
-        <f t="array" ref="M12">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0)))</f>
-        <v>1718033</v>
+        <f t="array" ref="M12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0)))</f>
+        <v>1697803</v>
       </c>
       <c r="N12" s="63">
         <v>5</v>
       </c>
       <c r="O12" s="62">
-        <f t="array" ref="O12">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0)))</f>
-        <v>19976</v>
+        <f t="array" ref="O12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0)))</f>
+        <v>19656</v>
       </c>
       <c r="P12" s="63">
         <v>6</v>
       </c>
       <c r="Q12" s="62">
-        <f t="array" ref="Q12">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0)))</f>
-        <v>10085</v>
+        <f t="array" ref="Q12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0)))</f>
+        <v>9752</v>
       </c>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
@@ -8046,8 +8083,8 @@
         <v>7</v>
       </c>
       <c r="G13" s="62">
-        <f t="array" ref="G13">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0)))</f>
-        <v>574425</v>
+        <f t="array" ref="G13">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0)))</f>
+        <v>561645</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="69"/>
@@ -8057,8 +8094,8 @@
         <v>8</v>
       </c>
       <c r="M13" s="62">
-        <f t="array" ref="M13">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0)))</f>
-        <v>3347120</v>
+        <f t="array" ref="M13">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0)))</f>
+        <v>3303406</v>
       </c>
       <c r="N13" s="68"/>
       <c r="O13" s="69"/>
@@ -8086,8 +8123,8 @@
         <v>9</v>
       </c>
       <c r="G14" s="70">
-        <f t="array" ref="G14">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0)))</f>
-        <v>10502</v>
+        <f t="array" ref="G14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0)))</f>
+        <v>10343</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="69"/>
@@ -8095,15 +8132,15 @@
         <v>10</v>
       </c>
       <c r="K14" s="71">
-        <f t="array" ref="K14">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0)))</f>
-        <v>6290</v>
+        <f t="array" ref="K14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0)))</f>
+        <v>6214</v>
       </c>
       <c r="L14" s="63">
         <v>11</v>
       </c>
       <c r="M14" s="62">
-        <f t="array" ref="M14">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0)))</f>
-        <v>48001</v>
+        <f t="array" ref="M14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0)))</f>
+        <v>47452</v>
       </c>
       <c r="N14" s="68"/>
       <c r="O14" s="69"/>
@@ -8111,8 +8148,8 @@
         <v>12</v>
       </c>
       <c r="Q14" s="62">
-        <f t="array" ref="Q14">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0)))</f>
-        <v>24535</v>
+        <f t="array" ref="Q14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0)))</f>
+        <v>24197</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
@@ -8137,8 +8174,8 @@
         <v>13</v>
       </c>
       <c r="K15" s="77">
-        <f t="array" ref="K15">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0)))</f>
-        <v>337</v>
+        <f t="array" ref="K15">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0)))</f>
+        <v>339</v>
       </c>
       <c r="L15" s="74"/>
       <c r="M15" s="75"/>
@@ -8148,8 +8185,8 @@
         <v>14</v>
       </c>
       <c r="Q15" s="78">
-        <f t="array" ref="Q15">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0)))</f>
-        <v>12800</v>
+        <f t="array" ref="Q15">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0)))</f>
+        <v>12406</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
@@ -8180,8 +8217,8 @@
         <v>15</v>
       </c>
       <c r="Q16" s="85">
-        <f t="array" ref="Q16">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0)))</f>
-        <v>1943129</v>
+        <f t="array" ref="Q16">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0)))</f>
+        <v>1918399</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
@@ -8212,8 +8249,8 @@
         <v>16</v>
       </c>
       <c r="Q17" s="85">
-        <f t="array" ref="Q17">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0)))</f>
-        <v>24598</v>
+        <f t="array" ref="Q17">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0)))</f>
+        <v>24222</v>
       </c>
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
@@ -8244,8 +8281,8 @@
         <v>17</v>
       </c>
       <c r="Q18" s="85">
-        <f t="array" ref="Q18">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0)))</f>
-        <v>10337</v>
+        <f t="array" ref="Q18">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0)))</f>
+        <v>10003</v>
       </c>
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
@@ -8277,8 +8314,8 @@
         <v>18</v>
       </c>
       <c r="Q19" s="78">
-        <f t="array" ref="Q19">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0)))</f>
-        <v>3921545</v>
+        <f t="array" ref="Q19">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0)))</f>
+        <v>3865051</v>
       </c>
       <c r="R19" s="93"/>
       <c r="S19" s="33"/>
@@ -8315,8 +8352,8 @@
         <v>19</v>
       </c>
       <c r="Q20" s="78">
-        <f t="array" ref="Q20">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0)))</f>
-        <v>58503</v>
+        <f t="array" ref="Q20">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0)))</f>
+        <v>57795</v>
       </c>
       <c r="R20" s="93"/>
       <c r="S20" s="33"/>
@@ -8353,8 +8390,8 @@
         <v>20</v>
       </c>
       <c r="Q21" s="95">
-        <f t="array" ref="Q21">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0)))</f>
-        <v>30825</v>
+        <f t="array" ref="Q21">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0)))</f>
+        <v>30411</v>
       </c>
       <c r="R21" s="93"/>
       <c r="S21" s="33"/>
@@ -8391,8 +8428,8 @@
         <v>21</v>
       </c>
       <c r="Q22" s="62">
-        <f t="array" ref="Q22">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0)))</f>
-        <v>13137</v>
+        <f t="array" ref="Q22">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0)))</f>
+        <v>12745</v>
       </c>
       <c r="R22" s="93"/>
       <c r="S22" s="33"/>
@@ -8460,7 +8497,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="78">
-        <f t="array" ref="Q24">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="Q24">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="R24" s="93"/>
@@ -8498,7 +8535,7 @@
         <v>23</v>
       </c>
       <c r="Q25" s="78">
-        <f t="array" ref="Q25">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="Q25">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="R25" s="93"/>
@@ -8536,7 +8573,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="78">
-        <f t="array" ref="Q26">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="Q26">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="R26" s="93"/>
@@ -8573,8 +8610,8 @@
         <v>25</v>
       </c>
       <c r="Q27" s="78">
-        <f t="array" ref="Q27">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0)))</f>
-        <v>2117392</v>
+        <f t="array" ref="Q27">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0)))</f>
+        <v>2080853</v>
       </c>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
@@ -8605,8 +8642,8 @@
         <v>26</v>
       </c>
       <c r="Q28" s="62">
-        <f t="array" ref="Q28">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0)))</f>
-        <v>2117392</v>
+        <f t="array" ref="Q28">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0)))</f>
+        <v>2080853</v>
       </c>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -8635,7 +8672,7 @@
         <v>27</v>
       </c>
       <c r="O29" s="62">
-        <f t="array" ref="O29">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="O29">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="P29" s="126"/>
@@ -8696,8 +8733,8 @@
         <v>28</v>
       </c>
       <c r="Q31" s="136">
-        <f t="array" ref="Q31">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0)))</f>
-        <v>535739484</v>
+        <f t="array" ref="Q31">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0)))</f>
+        <v>526953390</v>
       </c>
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
@@ -8728,8 +8765,8 @@
         <v>29</v>
       </c>
       <c r="Q32" s="136">
-        <f t="array" ref="Q32">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0)))</f>
-        <v>4811847</v>
+        <f t="array" ref="Q32">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0)))</f>
+        <v>4714689</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" thickBot="1">
@@ -8757,8 +8794,8 @@
         <v>30</v>
       </c>
       <c r="Q33" s="138">
-        <f t="array" ref="Q33">IF(INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$537,MATCH($C$6&amp;$J$6,Data!$B$7:$B$537&amp;Data!$G$7:$G$537,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0)))</f>
-        <v>540551331</v>
+        <f t="array" ref="Q33">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0)))</f>
+        <v>531668079</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="94" customFormat="1" ht="12.75" customHeight="1">
@@ -9026,7 +9063,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AK537"/>
+  <dimension ref="A1:AK596"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -61836,67 +61873,67 @@
         <v>43160</v>
       </c>
       <c r="H479" s="196">
-        <v>225096</v>
+        <v>223659</v>
       </c>
       <c r="I479" s="196">
-        <v>4622</v>
+        <v>4608</v>
       </c>
       <c r="J479" s="196">
         <v>252</v>
       </c>
       <c r="K479" s="196">
-        <v>1718033</v>
+        <v>1708946</v>
       </c>
       <c r="L479" s="196">
-        <v>19976</v>
+        <v>19847</v>
       </c>
       <c r="M479" s="196">
-        <v>10085</v>
+        <v>10052</v>
       </c>
       <c r="N479" s="196">
-        <v>1943129</v>
+        <v>1932605</v>
       </c>
       <c r="O479" s="196">
-        <v>24598</v>
+        <v>24455</v>
       </c>
       <c r="P479" s="196">
-        <v>10337</v>
+        <v>10304</v>
       </c>
       <c r="Q479" s="196">
-        <v>574425</v>
+        <v>570495</v>
       </c>
       <c r="R479" s="196">
-        <v>3347120</v>
+        <v>3327735</v>
       </c>
       <c r="S479" s="196">
-        <v>3921545</v>
+        <v>3898230</v>
       </c>
       <c r="T479" s="196">
-        <v>10502</v>
+        <v>10459</v>
       </c>
       <c r="U479" s="196">
-        <v>6290</v>
+        <v>6276</v>
       </c>
       <c r="V479" s="196">
-        <v>48001</v>
+        <v>47624</v>
       </c>
       <c r="W479" s="196">
-        <v>24535</v>
+        <v>24396</v>
       </c>
       <c r="X479" s="196">
-        <v>58503</v>
+        <v>58083</v>
       </c>
       <c r="Y479" s="196">
-        <v>30825</v>
+        <v>30672</v>
       </c>
       <c r="Z479" s="196">
         <v>337</v>
       </c>
       <c r="AA479" s="196">
-        <v>12800</v>
+        <v>12759</v>
       </c>
       <c r="AB479" s="196">
-        <v>13137</v>
+        <v>13096</v>
       </c>
       <c r="AC479" s="196">
         <v>0</v>
@@ -61908,22 +61945,22 @@
         <v>0</v>
       </c>
       <c r="AF479" s="196">
-        <v>2117392</v>
+        <v>2106206</v>
       </c>
       <c r="AG479" s="196">
-        <v>2117392</v>
+        <v>2106206</v>
       </c>
       <c r="AH479" s="196">
         <v>0</v>
       </c>
       <c r="AI479" s="196">
-        <v>535739484</v>
+        <v>532758920</v>
       </c>
       <c r="AJ479" s="196">
-        <v>4811847</v>
+        <v>4794064</v>
       </c>
       <c r="AK479" s="196">
-        <v>540551331</v>
+        <v>537552984</v>
       </c>
     </row>
     <row r="480" spans="1:37">
@@ -63591,114 +63628,114 @@
         <v>20568973</v>
       </c>
     </row>
-    <row r="495" spans="1:37" s="266" customFormat="1">
-      <c r="A495" s="259">
+    <row r="495" spans="1:37">
+      <c r="A495" s="250">
         <v>43160</v>
       </c>
-      <c r="B495" s="260" t="s">
+      <c r="B495" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="C495" s="261"/>
-      <c r="D495" s="262" t="s">
+      <c r="C495" s="193"/>
+      <c r="D495" s="194" t="s">
         <v>182</v>
       </c>
-      <c r="E495" s="260" t="s">
+      <c r="E495" s="192" t="s">
         <v>270</v>
       </c>
-      <c r="F495" s="260">
+      <c r="F495" s="192">
         <v>2018</v>
       </c>
-      <c r="G495" s="263">
+      <c r="G495" s="195">
         <v>43160</v>
       </c>
-      <c r="H495" s="264">
+      <c r="H495" s="196">
         <v>1437</v>
       </c>
-      <c r="I495" s="264">
+      <c r="I495" s="196">
         <v>14</v>
       </c>
-      <c r="J495" s="264">
-        <v>0</v>
-      </c>
-      <c r="K495" s="264">
+      <c r="J495" s="196">
+        <v>0</v>
+      </c>
+      <c r="K495" s="196">
         <v>9087</v>
       </c>
-      <c r="L495" s="264">
+      <c r="L495" s="196">
         <v>129</v>
       </c>
-      <c r="M495" s="264">
+      <c r="M495" s="196">
         <v>33</v>
       </c>
-      <c r="N495" s="264">
+      <c r="N495" s="196">
         <v>10524</v>
       </c>
-      <c r="O495" s="264">
+      <c r="O495" s="196">
         <v>143</v>
       </c>
-      <c r="P495" s="264">
+      <c r="P495" s="196">
         <v>33</v>
       </c>
-      <c r="Q495" s="264">
+      <c r="Q495" s="196">
         <v>3930</v>
       </c>
-      <c r="R495" s="264">
+      <c r="R495" s="196">
         <v>19385</v>
       </c>
-      <c r="S495" s="264">
+      <c r="S495" s="196">
         <v>23315</v>
       </c>
-      <c r="T495" s="264">
+      <c r="T495" s="196">
         <v>43</v>
       </c>
-      <c r="U495" s="264">
+      <c r="U495" s="196">
         <v>14</v>
       </c>
-      <c r="V495" s="264">
+      <c r="V495" s="196">
         <v>377</v>
       </c>
-      <c r="W495" s="264">
+      <c r="W495" s="196">
         <v>139</v>
       </c>
-      <c r="X495" s="264">
+      <c r="X495" s="196">
         <v>420</v>
       </c>
-      <c r="Y495" s="264">
+      <c r="Y495" s="196">
         <v>153</v>
       </c>
-      <c r="Z495" s="264">
-        <v>0</v>
-      </c>
-      <c r="AA495" s="264">
+      <c r="Z495" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA495" s="196">
         <v>41</v>
       </c>
-      <c r="AB495" s="264">
+      <c r="AB495" s="196">
         <v>41</v>
       </c>
-      <c r="AC495" s="264">
-        <v>0</v>
-      </c>
-      <c r="AD495" s="264">
-        <v>0</v>
-      </c>
-      <c r="AE495" s="264">
-        <v>0</v>
-      </c>
-      <c r="AF495" s="264">
+      <c r="AC495" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD495" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE495" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF495" s="196">
         <v>11186</v>
       </c>
-      <c r="AG495" s="264">
+      <c r="AG495" s="196">
         <v>11186</v>
       </c>
-      <c r="AH495" s="264">
-        <v>0</v>
-      </c>
-      <c r="AI495" s="264">
+      <c r="AH495" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI495" s="196">
         <v>2980564</v>
       </c>
-      <c r="AJ495" s="264">
+      <c r="AJ495" s="196">
         <v>17783</v>
       </c>
-      <c r="AK495" s="265">
+      <c r="AK495" s="197">
         <v>2998347</v>
       </c>
     </row>
@@ -68364,8 +68401,6557 @@
         <v>1715388</v>
       </c>
     </row>
+    <row r="538" spans="1:37">
+      <c r="A538" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B538" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C538" s="193"/>
+      <c r="D538" s="194" t="s">
+        <v>165</v>
+      </c>
+      <c r="E538" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F538" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G538" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H538" s="196">
+        <v>220596</v>
+      </c>
+      <c r="I538" s="196">
+        <v>4566</v>
+      </c>
+      <c r="J538" s="196">
+        <v>251</v>
+      </c>
+      <c r="K538" s="196">
+        <v>1697803</v>
+      </c>
+      <c r="L538" s="196">
+        <v>19656</v>
+      </c>
+      <c r="M538" s="196">
+        <v>9752</v>
+      </c>
+      <c r="N538" s="196">
+        <v>1918399</v>
+      </c>
+      <c r="O538" s="196">
+        <v>24222</v>
+      </c>
+      <c r="P538" s="196">
+        <v>10003</v>
+      </c>
+      <c r="Q538" s="196">
+        <v>561645</v>
+      </c>
+      <c r="R538" s="196">
+        <v>3303406</v>
+      </c>
+      <c r="S538" s="196">
+        <v>3865051</v>
+      </c>
+      <c r="T538" s="196">
+        <v>10343</v>
+      </c>
+      <c r="U538" s="196">
+        <v>6214</v>
+      </c>
+      <c r="V538" s="196">
+        <v>47452</v>
+      </c>
+      <c r="W538" s="196">
+        <v>24197</v>
+      </c>
+      <c r="X538" s="196">
+        <v>57795</v>
+      </c>
+      <c r="Y538" s="196">
+        <v>30411</v>
+      </c>
+      <c r="Z538" s="196">
+        <v>339</v>
+      </c>
+      <c r="AA538" s="196">
+        <v>12406</v>
+      </c>
+      <c r="AB538" s="196">
+        <v>12745</v>
+      </c>
+      <c r="AC538" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD538" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE538" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF538" s="196">
+        <v>2080853</v>
+      </c>
+      <c r="AG538" s="196">
+        <v>2080853</v>
+      </c>
+      <c r="AH538" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI538" s="196">
+        <v>526953390</v>
+      </c>
+      <c r="AJ538" s="196">
+        <v>4714689</v>
+      </c>
+      <c r="AK538" s="196">
+        <v>531668079</v>
+      </c>
+    </row>
+    <row r="539" spans="1:37">
+      <c r="A539" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B539" s="192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C539" s="193"/>
+      <c r="D539" s="194" t="s">
+        <v>166</v>
+      </c>
+      <c r="E539" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F539" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G539" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H539" s="196">
+        <v>4513</v>
+      </c>
+      <c r="I539" s="196">
+        <v>191</v>
+      </c>
+      <c r="J539" s="196">
+        <v>7</v>
+      </c>
+      <c r="K539" s="196">
+        <v>48443</v>
+      </c>
+      <c r="L539" s="196">
+        <v>1350</v>
+      </c>
+      <c r="M539" s="196">
+        <v>628</v>
+      </c>
+      <c r="N539" s="196">
+        <v>52956</v>
+      </c>
+      <c r="O539" s="196">
+        <v>1541</v>
+      </c>
+      <c r="P539" s="196">
+        <v>635</v>
+      </c>
+      <c r="Q539" s="196">
+        <v>10292</v>
+      </c>
+      <c r="R539" s="196">
+        <v>85388</v>
+      </c>
+      <c r="S539" s="196">
+        <v>95680</v>
+      </c>
+      <c r="T539" s="196">
+        <v>467</v>
+      </c>
+      <c r="U539" s="196">
+        <v>259</v>
+      </c>
+      <c r="V539" s="196">
+        <v>3082</v>
+      </c>
+      <c r="W539" s="196">
+        <v>1787</v>
+      </c>
+      <c r="X539" s="196">
+        <v>3549</v>
+      </c>
+      <c r="Y539" s="196">
+        <v>2046</v>
+      </c>
+      <c r="Z539" s="196">
+        <v>14</v>
+      </c>
+      <c r="AA539" s="196">
+        <v>810</v>
+      </c>
+      <c r="AB539" s="196">
+        <v>824</v>
+      </c>
+      <c r="AC539" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD539" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE539" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF539" s="196">
+        <v>55132</v>
+      </c>
+      <c r="AG539" s="196">
+        <v>55132</v>
+      </c>
+      <c r="AH539" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI539" s="196">
+        <v>13812451</v>
+      </c>
+      <c r="AJ539" s="196">
+        <v>306942</v>
+      </c>
+      <c r="AK539" s="197">
+        <v>14119393</v>
+      </c>
+    </row>
+    <row r="540" spans="1:37">
+      <c r="A540" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B540" s="192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C540" s="193"/>
+      <c r="D540" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="E540" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F540" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G540" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H540" s="196">
+        <v>4</v>
+      </c>
+      <c r="I540" s="196">
+        <v>0</v>
+      </c>
+      <c r="J540" s="196">
+        <v>0</v>
+      </c>
+      <c r="K540" s="196">
+        <v>72</v>
+      </c>
+      <c r="L540" s="196">
+        <v>0</v>
+      </c>
+      <c r="M540" s="196">
+        <v>0</v>
+      </c>
+      <c r="N540" s="196">
+        <v>76</v>
+      </c>
+      <c r="O540" s="196">
+        <v>0</v>
+      </c>
+      <c r="P540" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q540" s="196">
+        <v>5</v>
+      </c>
+      <c r="R540" s="196">
+        <v>128</v>
+      </c>
+      <c r="S540" s="196">
+        <v>133</v>
+      </c>
+      <c r="T540" s="196">
+        <v>0</v>
+      </c>
+      <c r="U540" s="196">
+        <v>0</v>
+      </c>
+      <c r="V540" s="196">
+        <v>0</v>
+      </c>
+      <c r="W540" s="196">
+        <v>0</v>
+      </c>
+      <c r="X540" s="196">
+        <v>0</v>
+      </c>
+      <c r="Y540" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF540" s="196">
+        <v>77</v>
+      </c>
+      <c r="AG540" s="196">
+        <v>77</v>
+      </c>
+      <c r="AH540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI540" s="196">
+        <v>15296</v>
+      </c>
+      <c r="AJ540" s="196">
+        <v>0</v>
+      </c>
+      <c r="AK540" s="197">
+        <v>15296</v>
+      </c>
+    </row>
+    <row r="541" spans="1:37">
+      <c r="A541" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B541" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C541" s="193"/>
+      <c r="D541" s="194" t="s">
+        <v>168</v>
+      </c>
+      <c r="E541" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F541" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G541" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H541" s="196">
+        <v>103</v>
+      </c>
+      <c r="I541" s="196">
+        <v>0</v>
+      </c>
+      <c r="J541" s="196">
+        <v>0</v>
+      </c>
+      <c r="K541" s="196">
+        <v>1444</v>
+      </c>
+      <c r="L541" s="196">
+        <v>1</v>
+      </c>
+      <c r="M541" s="196">
+        <v>0</v>
+      </c>
+      <c r="N541" s="196">
+        <v>1547</v>
+      </c>
+      <c r="O541" s="196">
+        <v>1</v>
+      </c>
+      <c r="P541" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q541" s="196">
+        <v>264</v>
+      </c>
+      <c r="R541" s="196">
+        <v>2512</v>
+      </c>
+      <c r="S541" s="196">
+        <v>2776</v>
+      </c>
+      <c r="T541" s="196">
+        <v>0</v>
+      </c>
+      <c r="U541" s="196">
+        <v>0</v>
+      </c>
+      <c r="V541" s="196">
+        <v>3</v>
+      </c>
+      <c r="W541" s="196">
+        <v>1</v>
+      </c>
+      <c r="X541" s="196">
+        <v>3</v>
+      </c>
+      <c r="Y541" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z541" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA541" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB541" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC541" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD541" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE541" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF541" s="196">
+        <v>1598</v>
+      </c>
+      <c r="AG541" s="196">
+        <v>1598</v>
+      </c>
+      <c r="AH541" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI541" s="196">
+        <v>352607</v>
+      </c>
+      <c r="AJ541" s="196">
+        <v>139</v>
+      </c>
+      <c r="AK541" s="197">
+        <v>352746</v>
+      </c>
+    </row>
+    <row r="542" spans="1:37">
+      <c r="A542" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B542" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C542" s="193"/>
+      <c r="D542" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="E542" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F542" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G542" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H542" s="196">
+        <v>1466</v>
+      </c>
+      <c r="I542" s="196">
+        <v>7</v>
+      </c>
+      <c r="J542" s="196">
+        <v>0</v>
+      </c>
+      <c r="K542" s="196">
+        <v>15541</v>
+      </c>
+      <c r="L542" s="196">
+        <v>51</v>
+      </c>
+      <c r="M542" s="196">
+        <v>28</v>
+      </c>
+      <c r="N542" s="196">
+        <v>17007</v>
+      </c>
+      <c r="O542" s="196">
+        <v>58</v>
+      </c>
+      <c r="P542" s="196">
+        <v>28</v>
+      </c>
+      <c r="Q542" s="196">
+        <v>3593</v>
+      </c>
+      <c r="R542" s="196">
+        <v>27072</v>
+      </c>
+      <c r="S542" s="196">
+        <v>30665</v>
+      </c>
+      <c r="T542" s="196">
+        <v>13</v>
+      </c>
+      <c r="U542" s="196">
+        <v>7</v>
+      </c>
+      <c r="V542" s="196">
+        <v>135</v>
+      </c>
+      <c r="W542" s="196">
+        <v>57</v>
+      </c>
+      <c r="X542" s="196">
+        <v>148</v>
+      </c>
+      <c r="Y542" s="196">
+        <v>64</v>
+      </c>
+      <c r="Z542" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA542" s="196">
+        <v>35</v>
+      </c>
+      <c r="AB542" s="196">
+        <v>35</v>
+      </c>
+      <c r="AC542" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD542" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE542" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF542" s="196">
+        <v>18087</v>
+      </c>
+      <c r="AG542" s="196">
+        <v>18087</v>
+      </c>
+      <c r="AH542" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI542" s="196">
+        <v>4159094</v>
+      </c>
+      <c r="AJ542" s="196">
+        <v>11765</v>
+      </c>
+      <c r="AK542" s="197">
+        <v>4170859</v>
+      </c>
+    </row>
+    <row r="543" spans="1:37">
+      <c r="A543" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B543" s="192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C543" s="193"/>
+      <c r="D543" s="194" t="s">
+        <v>170</v>
+      </c>
+      <c r="E543" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F543" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G543" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H543" s="196">
+        <v>207</v>
+      </c>
+      <c r="I543" s="196">
+        <v>0</v>
+      </c>
+      <c r="J543" s="196">
+        <v>0</v>
+      </c>
+      <c r="K543" s="196">
+        <v>2524</v>
+      </c>
+      <c r="L543" s="196">
+        <v>5</v>
+      </c>
+      <c r="M543" s="196">
+        <v>1</v>
+      </c>
+      <c r="N543" s="196">
+        <v>2731</v>
+      </c>
+      <c r="O543" s="196">
+        <v>5</v>
+      </c>
+      <c r="P543" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q543" s="196">
+        <v>558</v>
+      </c>
+      <c r="R543" s="196">
+        <v>4352</v>
+      </c>
+      <c r="S543" s="196">
+        <v>4910</v>
+      </c>
+      <c r="T543" s="196">
+        <v>0</v>
+      </c>
+      <c r="U543" s="196">
+        <v>0</v>
+      </c>
+      <c r="V543" s="196">
+        <v>8</v>
+      </c>
+      <c r="W543" s="196">
+        <v>6</v>
+      </c>
+      <c r="X543" s="196">
+        <v>8</v>
+      </c>
+      <c r="Y543" s="196">
+        <v>6</v>
+      </c>
+      <c r="Z543" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA543" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB543" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC543" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD543" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE543" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF543" s="196">
+        <v>2869</v>
+      </c>
+      <c r="AG543" s="196">
+        <v>2869</v>
+      </c>
+      <c r="AH543" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI543" s="196">
+        <v>648357</v>
+      </c>
+      <c r="AJ543" s="196">
+        <v>352</v>
+      </c>
+      <c r="AK543" s="197">
+        <v>648709</v>
+      </c>
+    </row>
+    <row r="544" spans="1:37">
+      <c r="A544" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B544" s="192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C544" s="193"/>
+      <c r="D544" s="194" t="s">
+        <v>171</v>
+      </c>
+      <c r="E544" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F544" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G544" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H544" s="196">
+        <v>63</v>
+      </c>
+      <c r="I544" s="196">
+        <v>1</v>
+      </c>
+      <c r="J544" s="196">
+        <v>0</v>
+      </c>
+      <c r="K544" s="196">
+        <v>620</v>
+      </c>
+      <c r="L544" s="196">
+        <v>4</v>
+      </c>
+      <c r="M544" s="196">
+        <v>1</v>
+      </c>
+      <c r="N544" s="196">
+        <v>683</v>
+      </c>
+      <c r="O544" s="196">
+        <v>5</v>
+      </c>
+      <c r="P544" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q544" s="196">
+        <v>143</v>
+      </c>
+      <c r="R544" s="196">
+        <v>1316</v>
+      </c>
+      <c r="S544" s="196">
+        <v>1459</v>
+      </c>
+      <c r="T544" s="196">
+        <v>3</v>
+      </c>
+      <c r="U544" s="196">
+        <v>1</v>
+      </c>
+      <c r="V544" s="196">
+        <v>17</v>
+      </c>
+      <c r="W544" s="196">
+        <v>5</v>
+      </c>
+      <c r="X544" s="196">
+        <v>20</v>
+      </c>
+      <c r="Y544" s="196">
+        <v>6</v>
+      </c>
+      <c r="Z544" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA544" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB544" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC544" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD544" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE544" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF544" s="196">
+        <v>748</v>
+      </c>
+      <c r="AG544" s="196">
+        <v>748</v>
+      </c>
+      <c r="AH544" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI544" s="196">
+        <v>188671</v>
+      </c>
+      <c r="AJ544" s="196">
+        <v>508</v>
+      </c>
+      <c r="AK544" s="197">
+        <v>189179</v>
+      </c>
+    </row>
+    <row r="545" spans="1:37">
+      <c r="A545" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B545" s="192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C545" s="193"/>
+      <c r="D545" s="194" t="s">
+        <v>172</v>
+      </c>
+      <c r="E545" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F545" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G545" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H545" s="196">
+        <v>3283</v>
+      </c>
+      <c r="I545" s="196">
+        <v>93</v>
+      </c>
+      <c r="J545" s="196">
+        <v>1</v>
+      </c>
+      <c r="K545" s="196">
+        <v>26774</v>
+      </c>
+      <c r="L545" s="196">
+        <v>401</v>
+      </c>
+      <c r="M545" s="196">
+        <v>113</v>
+      </c>
+      <c r="N545" s="196">
+        <v>30057</v>
+      </c>
+      <c r="O545" s="196">
+        <v>494</v>
+      </c>
+      <c r="P545" s="196">
+        <v>114</v>
+      </c>
+      <c r="Q545" s="196">
+        <v>7636</v>
+      </c>
+      <c r="R545" s="196">
+        <v>50975</v>
+      </c>
+      <c r="S545" s="196">
+        <v>58611</v>
+      </c>
+      <c r="T545" s="196">
+        <v>208</v>
+      </c>
+      <c r="U545" s="196">
+        <v>134</v>
+      </c>
+      <c r="V545" s="196">
+        <v>978</v>
+      </c>
+      <c r="W545" s="196">
+        <v>540</v>
+      </c>
+      <c r="X545" s="196">
+        <v>1186</v>
+      </c>
+      <c r="Y545" s="196">
+        <v>674</v>
+      </c>
+      <c r="Z545" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA545" s="196">
+        <v>146</v>
+      </c>
+      <c r="AB545" s="196">
+        <v>147</v>
+      </c>
+      <c r="AC545" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD545" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE545" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF545" s="196">
+        <v>35208</v>
+      </c>
+      <c r="AG545" s="196">
+        <v>35208</v>
+      </c>
+      <c r="AH545" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI545" s="196">
+        <v>8271602</v>
+      </c>
+      <c r="AJ545" s="196">
+        <v>83305</v>
+      </c>
+      <c r="AK545" s="197">
+        <v>8354907</v>
+      </c>
+    </row>
+    <row r="546" spans="1:37">
+      <c r="A546" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B546" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C546" s="193"/>
+      <c r="D546" s="194" t="s">
+        <v>173</v>
+      </c>
+      <c r="E546" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F546" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G546" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H546" s="196">
+        <v>333</v>
+      </c>
+      <c r="I546" s="196">
+        <v>0</v>
+      </c>
+      <c r="J546" s="196">
+        <v>0</v>
+      </c>
+      <c r="K546" s="196">
+        <v>2192</v>
+      </c>
+      <c r="L546" s="196">
+        <v>1</v>
+      </c>
+      <c r="M546" s="196">
+        <v>0</v>
+      </c>
+      <c r="N546" s="196">
+        <v>2525</v>
+      </c>
+      <c r="O546" s="196">
+        <v>1</v>
+      </c>
+      <c r="P546" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q546" s="196">
+        <v>919</v>
+      </c>
+      <c r="R546" s="196">
+        <v>4116</v>
+      </c>
+      <c r="S546" s="196">
+        <v>5035</v>
+      </c>
+      <c r="T546" s="196">
+        <v>0</v>
+      </c>
+      <c r="U546" s="196">
+        <v>0</v>
+      </c>
+      <c r="V546" s="196">
+        <v>2</v>
+      </c>
+      <c r="W546" s="196">
+        <v>1</v>
+      </c>
+      <c r="X546" s="196">
+        <v>2</v>
+      </c>
+      <c r="Y546" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z546" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA546" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB546" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC546" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD546" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE546" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF546" s="196">
+        <v>2656</v>
+      </c>
+      <c r="AG546" s="196">
+        <v>2656</v>
+      </c>
+      <c r="AH546" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI546" s="196">
+        <v>655213</v>
+      </c>
+      <c r="AJ546" s="196">
+        <v>152</v>
+      </c>
+      <c r="AK546" s="197">
+        <v>655365</v>
+      </c>
+    </row>
+    <row r="547" spans="1:37">
+      <c r="A547" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B547" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="C547" s="193"/>
+      <c r="D547" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="E547" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F547" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G547" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H547" s="196">
+        <v>456</v>
+      </c>
+      <c r="I547" s="196">
+        <v>1</v>
+      </c>
+      <c r="J547" s="196">
+        <v>0</v>
+      </c>
+      <c r="K547" s="196">
+        <v>5964</v>
+      </c>
+      <c r="L547" s="196">
+        <v>28</v>
+      </c>
+      <c r="M547" s="196">
+        <v>6</v>
+      </c>
+      <c r="N547" s="196">
+        <v>6420</v>
+      </c>
+      <c r="O547" s="196">
+        <v>29</v>
+      </c>
+      <c r="P547" s="196">
+        <v>6</v>
+      </c>
+      <c r="Q547" s="196">
+        <v>1063</v>
+      </c>
+      <c r="R547" s="196">
+        <v>9988</v>
+      </c>
+      <c r="S547" s="196">
+        <v>11051</v>
+      </c>
+      <c r="T547" s="196">
+        <v>1</v>
+      </c>
+      <c r="U547" s="196">
+        <v>1</v>
+      </c>
+      <c r="V547" s="196">
+        <v>71</v>
+      </c>
+      <c r="W547" s="196">
+        <v>31</v>
+      </c>
+      <c r="X547" s="196">
+        <v>72</v>
+      </c>
+      <c r="Y547" s="196">
+        <v>32</v>
+      </c>
+      <c r="Z547" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA547" s="196">
+        <v>8</v>
+      </c>
+      <c r="AB547" s="196">
+        <v>8</v>
+      </c>
+      <c r="AC547" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD547" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE547" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF547" s="196">
+        <v>6767</v>
+      </c>
+      <c r="AG547" s="196">
+        <v>6767</v>
+      </c>
+      <c r="AH547" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI547" s="196">
+        <v>1482401</v>
+      </c>
+      <c r="AJ547" s="196">
+        <v>4120</v>
+      </c>
+      <c r="AK547" s="197">
+        <v>1486521</v>
+      </c>
+    </row>
+    <row r="548" spans="1:37">
+      <c r="A548" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B548" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C548" s="193"/>
+      <c r="D548" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="E548" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F548" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G548" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H548" s="196">
+        <v>11668</v>
+      </c>
+      <c r="I548" s="196">
+        <v>186</v>
+      </c>
+      <c r="J548" s="196">
+        <v>14</v>
+      </c>
+      <c r="K548" s="196">
+        <v>81453</v>
+      </c>
+      <c r="L548" s="196">
+        <v>710</v>
+      </c>
+      <c r="M548" s="196">
+        <v>238</v>
+      </c>
+      <c r="N548" s="196">
+        <v>93121</v>
+      </c>
+      <c r="O548" s="196">
+        <v>896</v>
+      </c>
+      <c r="P548" s="196">
+        <v>252</v>
+      </c>
+      <c r="Q548" s="196">
+        <v>31337</v>
+      </c>
+      <c r="R548" s="196">
+        <v>180923</v>
+      </c>
+      <c r="S548" s="196">
+        <v>212260</v>
+      </c>
+      <c r="T548" s="196">
+        <v>455</v>
+      </c>
+      <c r="U548" s="196">
+        <v>226</v>
+      </c>
+      <c r="V548" s="196">
+        <v>2024</v>
+      </c>
+      <c r="W548" s="196">
+        <v>829</v>
+      </c>
+      <c r="X548" s="196">
+        <v>2479</v>
+      </c>
+      <c r="Y548" s="196">
+        <v>1055</v>
+      </c>
+      <c r="Z548" s="196">
+        <v>17</v>
+      </c>
+      <c r="AA548" s="196">
+        <v>300</v>
+      </c>
+      <c r="AB548" s="196">
+        <v>317</v>
+      </c>
+      <c r="AC548" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD548" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE548" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF548" s="196">
+        <v>99702</v>
+      </c>
+      <c r="AG548" s="196">
+        <v>99702</v>
+      </c>
+      <c r="AH548" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI548" s="196">
+        <v>28294550</v>
+      </c>
+      <c r="AJ548" s="196">
+        <v>157636</v>
+      </c>
+      <c r="AK548" s="197">
+        <v>28452186</v>
+      </c>
+    </row>
+    <row r="549" spans="1:37">
+      <c r="A549" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B549" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="C549" s="193"/>
+      <c r="D549" s="194" t="s">
+        <v>177</v>
+      </c>
+      <c r="E549" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F549" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G549" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H549" s="196">
+        <v>196</v>
+      </c>
+      <c r="I549" s="196">
+        <v>0</v>
+      </c>
+      <c r="J549" s="196">
+        <v>0</v>
+      </c>
+      <c r="K549" s="196">
+        <v>1285</v>
+      </c>
+      <c r="L549" s="196">
+        <v>10</v>
+      </c>
+      <c r="M549" s="196">
+        <v>1</v>
+      </c>
+      <c r="N549" s="196">
+        <v>1481</v>
+      </c>
+      <c r="O549" s="196">
+        <v>10</v>
+      </c>
+      <c r="P549" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q549" s="196">
+        <v>526</v>
+      </c>
+      <c r="R549" s="196">
+        <v>2827</v>
+      </c>
+      <c r="S549" s="196">
+        <v>3353</v>
+      </c>
+      <c r="T549" s="196">
+        <v>0</v>
+      </c>
+      <c r="U549" s="196">
+        <v>0</v>
+      </c>
+      <c r="V549" s="196">
+        <v>27</v>
+      </c>
+      <c r="W549" s="196">
+        <v>10</v>
+      </c>
+      <c r="X549" s="196">
+        <v>27</v>
+      </c>
+      <c r="Y549" s="196">
+        <v>10</v>
+      </c>
+      <c r="Z549" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA549" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB549" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC549" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD549" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE549" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF549" s="196">
+        <v>1596</v>
+      </c>
+      <c r="AG549" s="196">
+        <v>1596</v>
+      </c>
+      <c r="AH549" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI549" s="196">
+        <v>409059</v>
+      </c>
+      <c r="AJ549" s="196">
+        <v>1025</v>
+      </c>
+      <c r="AK549" s="197">
+        <v>410084</v>
+      </c>
+    </row>
+    <row r="550" spans="1:37">
+      <c r="A550" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B550" s="192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C550" s="193"/>
+      <c r="D550" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="E550" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F550" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G550" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H550" s="196">
+        <v>806</v>
+      </c>
+      <c r="I550" s="196">
+        <v>1</v>
+      </c>
+      <c r="J550" s="196">
+        <v>0</v>
+      </c>
+      <c r="K550" s="196">
+        <v>11073</v>
+      </c>
+      <c r="L550" s="196">
+        <v>27</v>
+      </c>
+      <c r="M550" s="196">
+        <v>4</v>
+      </c>
+      <c r="N550" s="196">
+        <v>11879</v>
+      </c>
+      <c r="O550" s="196">
+        <v>28</v>
+      </c>
+      <c r="P550" s="196">
+        <v>4</v>
+      </c>
+      <c r="Q550" s="196">
+        <v>2062</v>
+      </c>
+      <c r="R550" s="196">
+        <v>17587</v>
+      </c>
+      <c r="S550" s="196">
+        <v>19649</v>
+      </c>
+      <c r="T550" s="196">
+        <v>1</v>
+      </c>
+      <c r="U550" s="196">
+        <v>1</v>
+      </c>
+      <c r="V550" s="196">
+        <v>66</v>
+      </c>
+      <c r="W550" s="196">
+        <v>32</v>
+      </c>
+      <c r="X550" s="196">
+        <v>67</v>
+      </c>
+      <c r="Y550" s="196">
+        <v>33</v>
+      </c>
+      <c r="Z550" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA550" s="196">
+        <v>5</v>
+      </c>
+      <c r="AB550" s="196">
+        <v>5</v>
+      </c>
+      <c r="AC550" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD550" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE550" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF550" s="196">
+        <v>12635</v>
+      </c>
+      <c r="AG550" s="196">
+        <v>12635</v>
+      </c>
+      <c r="AH550" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI550" s="196">
+        <v>2723157</v>
+      </c>
+      <c r="AJ550" s="196">
+        <v>3577</v>
+      </c>
+      <c r="AK550" s="197">
+        <v>2726734</v>
+      </c>
+    </row>
+    <row r="551" spans="1:37">
+      <c r="A551" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B551" s="192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C551" s="193"/>
+      <c r="D551" s="194" t="s">
+        <v>179</v>
+      </c>
+      <c r="E551" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F551" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G551" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H551" s="196">
+        <v>2105</v>
+      </c>
+      <c r="I551" s="196">
+        <v>22</v>
+      </c>
+      <c r="J551" s="196">
+        <v>0</v>
+      </c>
+      <c r="K551" s="196">
+        <v>14287</v>
+      </c>
+      <c r="L551" s="196">
+        <v>254</v>
+      </c>
+      <c r="M551" s="196">
+        <v>61</v>
+      </c>
+      <c r="N551" s="196">
+        <v>16392</v>
+      </c>
+      <c r="O551" s="196">
+        <v>276</v>
+      </c>
+      <c r="P551" s="196">
+        <v>61</v>
+      </c>
+      <c r="Q551" s="196">
+        <v>5835</v>
+      </c>
+      <c r="R551" s="196">
+        <v>32643</v>
+      </c>
+      <c r="S551" s="196">
+        <v>38478</v>
+      </c>
+      <c r="T551" s="196">
+        <v>52</v>
+      </c>
+      <c r="U551" s="196">
+        <v>22</v>
+      </c>
+      <c r="V551" s="196">
+        <v>698</v>
+      </c>
+      <c r="W551" s="196">
+        <v>271</v>
+      </c>
+      <c r="X551" s="196">
+        <v>750</v>
+      </c>
+      <c r="Y551" s="196">
+        <v>293</v>
+      </c>
+      <c r="Z551" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA551" s="196">
+        <v>70</v>
+      </c>
+      <c r="AB551" s="196">
+        <v>70</v>
+      </c>
+      <c r="AC551" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD551" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE551" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF551" s="196">
+        <v>17526</v>
+      </c>
+      <c r="AG551" s="196">
+        <v>17526</v>
+      </c>
+      <c r="AH551" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI551" s="196">
+        <v>4849808</v>
+      </c>
+      <c r="AJ551" s="196">
+        <v>41246</v>
+      </c>
+      <c r="AK551" s="197">
+        <v>4891054</v>
+      </c>
+    </row>
+    <row r="552" spans="1:37">
+      <c r="A552" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B552" s="192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C552" s="193"/>
+      <c r="D552" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="E552" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F552" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G552" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H552" s="196">
+        <v>74</v>
+      </c>
+      <c r="I552" s="196">
+        <v>0</v>
+      </c>
+      <c r="J552" s="196">
+        <v>0</v>
+      </c>
+      <c r="K552" s="196">
+        <v>974</v>
+      </c>
+      <c r="L552" s="196">
+        <v>3</v>
+      </c>
+      <c r="M552" s="196">
+        <v>1</v>
+      </c>
+      <c r="N552" s="196">
+        <v>1048</v>
+      </c>
+      <c r="O552" s="196">
+        <v>3</v>
+      </c>
+      <c r="P552" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q552" s="196">
+        <v>205</v>
+      </c>
+      <c r="R552" s="196">
+        <v>1795</v>
+      </c>
+      <c r="S552" s="196">
+        <v>2000</v>
+      </c>
+      <c r="T552" s="196">
+        <v>0</v>
+      </c>
+      <c r="U552" s="196">
+        <v>0</v>
+      </c>
+      <c r="V552" s="196">
+        <v>7</v>
+      </c>
+      <c r="W552" s="196">
+        <v>3</v>
+      </c>
+      <c r="X552" s="196">
+        <v>7</v>
+      </c>
+      <c r="Y552" s="196">
+        <v>3</v>
+      </c>
+      <c r="Z552" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA552" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB552" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC552" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD552" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE552" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF552" s="196">
+        <v>1093</v>
+      </c>
+      <c r="AG552" s="196">
+        <v>1093</v>
+      </c>
+      <c r="AH552" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI552" s="196">
+        <v>253087</v>
+      </c>
+      <c r="AJ552" s="196">
+        <v>328</v>
+      </c>
+      <c r="AK552" s="197">
+        <v>253415</v>
+      </c>
+    </row>
+    <row r="553" spans="1:37">
+      <c r="A553" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B553" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="C553" s="193"/>
+      <c r="D553" s="194" t="s">
+        <v>181</v>
+      </c>
+      <c r="E553" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F553" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G553" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H553" s="196">
+        <v>9331</v>
+      </c>
+      <c r="I553" s="196">
+        <v>53</v>
+      </c>
+      <c r="J553" s="196">
+        <v>2</v>
+      </c>
+      <c r="K553" s="196">
+        <v>57558</v>
+      </c>
+      <c r="L553" s="196">
+        <v>439</v>
+      </c>
+      <c r="M553" s="196">
+        <v>276</v>
+      </c>
+      <c r="N553" s="196">
+        <v>66889</v>
+      </c>
+      <c r="O553" s="196">
+        <v>492</v>
+      </c>
+      <c r="P553" s="196">
+        <v>278</v>
+      </c>
+      <c r="Q553" s="196">
+        <v>24671</v>
+      </c>
+      <c r="R553" s="196">
+        <v>128796</v>
+      </c>
+      <c r="S553" s="196">
+        <v>153467</v>
+      </c>
+      <c r="T553" s="196">
+        <v>136</v>
+      </c>
+      <c r="U553" s="196">
+        <v>57</v>
+      </c>
+      <c r="V553" s="196">
+        <v>1163</v>
+      </c>
+      <c r="W553" s="196">
+        <v>476</v>
+      </c>
+      <c r="X553" s="196">
+        <v>1299</v>
+      </c>
+      <c r="Y553" s="196">
+        <v>533</v>
+      </c>
+      <c r="Z553" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA553" s="196">
+        <v>409</v>
+      </c>
+      <c r="AB553" s="196">
+        <v>411</v>
+      </c>
+      <c r="AC553" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD553" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE553" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF553" s="196">
+        <v>71657</v>
+      </c>
+      <c r="AG553" s="196">
+        <v>71657</v>
+      </c>
+      <c r="AH553" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI553" s="196">
+        <v>20269804</v>
+      </c>
+      <c r="AJ553" s="196">
+        <v>126008</v>
+      </c>
+      <c r="AK553" s="197">
+        <v>20395812</v>
+      </c>
+    </row>
+    <row r="554" spans="1:37">
+      <c r="A554" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B554" s="192" t="s">
+        <v>41</v>
+      </c>
+      <c r="C554" s="193"/>
+      <c r="D554" s="194" t="s">
+        <v>182</v>
+      </c>
+      <c r="E554" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F554" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G554" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H554" s="196">
+        <v>1402</v>
+      </c>
+      <c r="I554" s="196">
+        <v>14</v>
+      </c>
+      <c r="J554" s="196">
+        <v>0</v>
+      </c>
+      <c r="K554" s="196">
+        <v>9068</v>
+      </c>
+      <c r="L554" s="196">
+        <v>130</v>
+      </c>
+      <c r="M554" s="196">
+        <v>35</v>
+      </c>
+      <c r="N554" s="196">
+        <v>10470</v>
+      </c>
+      <c r="O554" s="196">
+        <v>144</v>
+      </c>
+      <c r="P554" s="196">
+        <v>35</v>
+      </c>
+      <c r="Q554" s="196">
+        <v>3810</v>
+      </c>
+      <c r="R554" s="196">
+        <v>19326</v>
+      </c>
+      <c r="S554" s="196">
+        <v>23136</v>
+      </c>
+      <c r="T554" s="196">
+        <v>43</v>
+      </c>
+      <c r="U554" s="196">
+        <v>14</v>
+      </c>
+      <c r="V554" s="196">
+        <v>374</v>
+      </c>
+      <c r="W554" s="196">
+        <v>140</v>
+      </c>
+      <c r="X554" s="196">
+        <v>417</v>
+      </c>
+      <c r="Y554" s="196">
+        <v>154</v>
+      </c>
+      <c r="Z554" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA554" s="196">
+        <v>43</v>
+      </c>
+      <c r="AB554" s="196">
+        <v>43</v>
+      </c>
+      <c r="AC554" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD554" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE554" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF554" s="196">
+        <v>11153</v>
+      </c>
+      <c r="AG554" s="196">
+        <v>11153</v>
+      </c>
+      <c r="AH554" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI554" s="196">
+        <v>2942678</v>
+      </c>
+      <c r="AJ554" s="196">
+        <v>19486</v>
+      </c>
+      <c r="AK554" s="197">
+        <v>2962164</v>
+      </c>
+    </row>
+    <row r="555" spans="1:37">
+      <c r="A555" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B555" s="192" t="s">
+        <v>44</v>
+      </c>
+      <c r="C555" s="193"/>
+      <c r="D555" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="E555" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F555" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G555" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H555" s="196">
+        <v>500</v>
+      </c>
+      <c r="I555" s="196">
+        <v>6</v>
+      </c>
+      <c r="J555" s="196">
+        <v>0</v>
+      </c>
+      <c r="K555" s="196">
+        <v>5791</v>
+      </c>
+      <c r="L555" s="196">
+        <v>20</v>
+      </c>
+      <c r="M555" s="196">
+        <v>5</v>
+      </c>
+      <c r="N555" s="196">
+        <v>6291</v>
+      </c>
+      <c r="O555" s="196">
+        <v>26</v>
+      </c>
+      <c r="P555" s="196">
+        <v>5</v>
+      </c>
+      <c r="Q555" s="196">
+        <v>1255</v>
+      </c>
+      <c r="R555" s="196">
+        <v>10193</v>
+      </c>
+      <c r="S555" s="196">
+        <v>11448</v>
+      </c>
+      <c r="T555" s="196">
+        <v>21</v>
+      </c>
+      <c r="U555" s="196">
+        <v>7</v>
+      </c>
+      <c r="V555" s="196">
+        <v>44</v>
+      </c>
+      <c r="W555" s="196">
+        <v>21</v>
+      </c>
+      <c r="X555" s="196">
+        <v>65</v>
+      </c>
+      <c r="Y555" s="196">
+        <v>28</v>
+      </c>
+      <c r="Z555" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA555" s="196">
+        <v>6</v>
+      </c>
+      <c r="AB555" s="196">
+        <v>6</v>
+      </c>
+      <c r="AC555" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD555" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE555" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF555" s="196">
+        <v>6684</v>
+      </c>
+      <c r="AG555" s="196">
+        <v>6684</v>
+      </c>
+      <c r="AH555" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI555" s="196">
+        <v>1523650</v>
+      </c>
+      <c r="AJ555" s="196">
+        <v>2413</v>
+      </c>
+      <c r="AK555" s="197">
+        <v>1526063</v>
+      </c>
+    </row>
+    <row r="556" spans="1:37">
+      <c r="A556" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B556" s="192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C556" s="193"/>
+      <c r="D556" s="194" t="s">
+        <v>184</v>
+      </c>
+      <c r="E556" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F556" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G556" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H556" s="196">
+        <v>222</v>
+      </c>
+      <c r="I556" s="196">
+        <v>0</v>
+      </c>
+      <c r="J556" s="196">
+        <v>0</v>
+      </c>
+      <c r="K556" s="196">
+        <v>1281</v>
+      </c>
+      <c r="L556" s="196">
+        <v>2</v>
+      </c>
+      <c r="M556" s="196">
+        <v>0</v>
+      </c>
+      <c r="N556" s="196">
+        <v>1503</v>
+      </c>
+      <c r="O556" s="196">
+        <v>2</v>
+      </c>
+      <c r="P556" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q556" s="196">
+        <v>591</v>
+      </c>
+      <c r="R556" s="196">
+        <v>2348</v>
+      </c>
+      <c r="S556" s="196">
+        <v>2939</v>
+      </c>
+      <c r="T556" s="196">
+        <v>0</v>
+      </c>
+      <c r="U556" s="196">
+        <v>0</v>
+      </c>
+      <c r="V556" s="196">
+        <v>3</v>
+      </c>
+      <c r="W556" s="196">
+        <v>2</v>
+      </c>
+      <c r="X556" s="196">
+        <v>3</v>
+      </c>
+      <c r="Y556" s="196">
+        <v>2</v>
+      </c>
+      <c r="Z556" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA556" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB556" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC556" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD556" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE556" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF556" s="196">
+        <v>1603</v>
+      </c>
+      <c r="AG556" s="196">
+        <v>1603</v>
+      </c>
+      <c r="AH556" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI556" s="196">
+        <v>394068</v>
+      </c>
+      <c r="AJ556" s="196">
+        <v>312</v>
+      </c>
+      <c r="AK556" s="197">
+        <v>394380</v>
+      </c>
+    </row>
+    <row r="557" spans="1:37">
+      <c r="A557" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B557" s="192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C557" s="193"/>
+      <c r="D557" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="E557" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F557" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G557" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H557" s="196">
+        <v>72974</v>
+      </c>
+      <c r="I557" s="196">
+        <v>2152</v>
+      </c>
+      <c r="J557" s="196">
+        <v>179</v>
+      </c>
+      <c r="K557" s="196">
+        <v>465891</v>
+      </c>
+      <c r="L557" s="196">
+        <v>5490</v>
+      </c>
+      <c r="M557" s="196">
+        <v>3282</v>
+      </c>
+      <c r="N557" s="196">
+        <v>538865</v>
+      </c>
+      <c r="O557" s="196">
+        <v>7642</v>
+      </c>
+      <c r="P557" s="196">
+        <v>3461</v>
+      </c>
+      <c r="Q557" s="196">
+        <v>176617</v>
+      </c>
+      <c r="R557" s="196">
+        <v>868029</v>
+      </c>
+      <c r="S557" s="196">
+        <v>1044646</v>
+      </c>
+      <c r="T557" s="196">
+        <v>4508</v>
+      </c>
+      <c r="U557" s="196">
+        <v>2987</v>
+      </c>
+      <c r="V557" s="196">
+        <v>12586</v>
+      </c>
+      <c r="W557" s="196">
+        <v>6713</v>
+      </c>
+      <c r="X557" s="196">
+        <v>17094</v>
+      </c>
+      <c r="Y557" s="196">
+        <v>9700</v>
+      </c>
+      <c r="Z557" s="196">
+        <v>224</v>
+      </c>
+      <c r="AA557" s="196">
+        <v>4204</v>
+      </c>
+      <c r="AB557" s="196">
+        <v>4428</v>
+      </c>
+      <c r="AC557" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD557" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE557" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF557" s="196">
+        <v>577720</v>
+      </c>
+      <c r="AG557" s="196">
+        <v>577720</v>
+      </c>
+      <c r="AH557" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI557" s="196">
+        <v>147212466</v>
+      </c>
+      <c r="AJ557" s="196">
+        <v>1568319</v>
+      </c>
+      <c r="AK557" s="197">
+        <v>148780785</v>
+      </c>
+    </row>
+    <row r="558" spans="1:37">
+      <c r="A558" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B558" s="192" t="s">
+        <v>53</v>
+      </c>
+      <c r="C558" s="193"/>
+      <c r="D558" s="194" t="s">
+        <v>186</v>
+      </c>
+      <c r="E558" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F558" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G558" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H558" s="196">
+        <v>1604</v>
+      </c>
+      <c r="I558" s="196">
+        <v>24</v>
+      </c>
+      <c r="J558" s="196">
+        <v>1</v>
+      </c>
+      <c r="K558" s="196">
+        <v>9633</v>
+      </c>
+      <c r="L558" s="196">
+        <v>69</v>
+      </c>
+      <c r="M558" s="196">
+        <v>12</v>
+      </c>
+      <c r="N558" s="196">
+        <v>11237</v>
+      </c>
+      <c r="O558" s="196">
+        <v>93</v>
+      </c>
+      <c r="P558" s="196">
+        <v>13</v>
+      </c>
+      <c r="Q558" s="196">
+        <v>4354</v>
+      </c>
+      <c r="R558" s="196">
+        <v>22586</v>
+      </c>
+      <c r="S558" s="196">
+        <v>26940</v>
+      </c>
+      <c r="T558" s="196">
+        <v>67</v>
+      </c>
+      <c r="U558" s="196">
+        <v>25</v>
+      </c>
+      <c r="V558" s="196">
+        <v>190</v>
+      </c>
+      <c r="W558" s="196">
+        <v>79</v>
+      </c>
+      <c r="X558" s="196">
+        <v>257</v>
+      </c>
+      <c r="Y558" s="196">
+        <v>104</v>
+      </c>
+      <c r="Z558" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA558" s="196">
+        <v>14</v>
+      </c>
+      <c r="AB558" s="196">
+        <v>15</v>
+      </c>
+      <c r="AC558" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD558" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE558" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF558" s="196">
+        <v>8545</v>
+      </c>
+      <c r="AG558" s="196">
+        <v>8545</v>
+      </c>
+      <c r="AH558" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI558" s="196">
+        <v>3483483</v>
+      </c>
+      <c r="AJ558" s="196">
+        <v>12539</v>
+      </c>
+      <c r="AK558" s="197">
+        <v>3496022</v>
+      </c>
+    </row>
+    <row r="559" spans="1:37">
+      <c r="A559" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B559" s="192" t="s">
+        <v>55</v>
+      </c>
+      <c r="C559" s="193"/>
+      <c r="D559" s="194" t="s">
+        <v>187</v>
+      </c>
+      <c r="E559" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F559" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G559" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H559" s="196">
+        <v>487</v>
+      </c>
+      <c r="I559" s="196">
+        <v>34</v>
+      </c>
+      <c r="J559" s="196">
+        <v>1</v>
+      </c>
+      <c r="K559" s="196">
+        <v>5215</v>
+      </c>
+      <c r="L559" s="196">
+        <v>219</v>
+      </c>
+      <c r="M559" s="196">
+        <v>67</v>
+      </c>
+      <c r="N559" s="196">
+        <v>5702</v>
+      </c>
+      <c r="O559" s="196">
+        <v>253</v>
+      </c>
+      <c r="P559" s="196">
+        <v>68</v>
+      </c>
+      <c r="Q559" s="196">
+        <v>1068</v>
+      </c>
+      <c r="R559" s="196">
+        <v>7817</v>
+      </c>
+      <c r="S559" s="196">
+        <v>8885</v>
+      </c>
+      <c r="T559" s="196">
+        <v>74</v>
+      </c>
+      <c r="U559" s="196">
+        <v>40</v>
+      </c>
+      <c r="V559" s="196">
+        <v>457</v>
+      </c>
+      <c r="W559" s="196">
+        <v>262</v>
+      </c>
+      <c r="X559" s="196">
+        <v>531</v>
+      </c>
+      <c r="Y559" s="196">
+        <v>302</v>
+      </c>
+      <c r="Z559" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA559" s="196">
+        <v>84</v>
+      </c>
+      <c r="AB559" s="196">
+        <v>85</v>
+      </c>
+      <c r="AC559" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD559" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE559" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF559" s="196">
+        <v>6218</v>
+      </c>
+      <c r="AG559" s="196">
+        <v>6218</v>
+      </c>
+      <c r="AH559" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI559" s="196">
+        <v>1315126</v>
+      </c>
+      <c r="AJ559" s="196">
+        <v>32506</v>
+      </c>
+      <c r="AK559" s="197">
+        <v>1347632</v>
+      </c>
+    </row>
+    <row r="560" spans="1:37">
+      <c r="A560" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B560" s="192" t="s">
+        <v>58</v>
+      </c>
+      <c r="C560" s="193"/>
+      <c r="D560" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="E560" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F560" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G560" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H560" s="196">
+        <v>106</v>
+      </c>
+      <c r="I560" s="196">
+        <v>1</v>
+      </c>
+      <c r="J560" s="196">
+        <v>0</v>
+      </c>
+      <c r="K560" s="196">
+        <v>924</v>
+      </c>
+      <c r="L560" s="196">
+        <v>1</v>
+      </c>
+      <c r="M560" s="196">
+        <v>2</v>
+      </c>
+      <c r="N560" s="196">
+        <v>1030</v>
+      </c>
+      <c r="O560" s="196">
+        <v>2</v>
+      </c>
+      <c r="P560" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q560" s="196">
+        <v>288</v>
+      </c>
+      <c r="R560" s="196">
+        <v>1607</v>
+      </c>
+      <c r="S560" s="196">
+        <v>1895</v>
+      </c>
+      <c r="T560" s="196">
+        <v>1</v>
+      </c>
+      <c r="U560" s="196">
+        <v>1</v>
+      </c>
+      <c r="V560" s="196">
+        <v>4</v>
+      </c>
+      <c r="W560" s="196">
+        <v>1</v>
+      </c>
+      <c r="X560" s="196">
+        <v>5</v>
+      </c>
+      <c r="Y560" s="196">
+        <v>2</v>
+      </c>
+      <c r="Z560" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA560" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB560" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC560" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD560" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE560" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF560" s="196">
+        <v>1079</v>
+      </c>
+      <c r="AG560" s="196">
+        <v>1079</v>
+      </c>
+      <c r="AH560" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI560" s="196">
+        <v>251648</v>
+      </c>
+      <c r="AJ560" s="196">
+        <v>399</v>
+      </c>
+      <c r="AK560" s="197">
+        <v>252047</v>
+      </c>
+    </row>
+    <row r="561" spans="1:37">
+      <c r="A561" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B561" s="192" t="s">
+        <v>61</v>
+      </c>
+      <c r="C561" s="193"/>
+      <c r="D561" s="194" t="s">
+        <v>189</v>
+      </c>
+      <c r="E561" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F561" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G561" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H561" s="196">
+        <v>449</v>
+      </c>
+      <c r="I561" s="196">
+        <v>5</v>
+      </c>
+      <c r="J561" s="196">
+        <v>0</v>
+      </c>
+      <c r="K561" s="196">
+        <v>5751</v>
+      </c>
+      <c r="L561" s="196">
+        <v>45</v>
+      </c>
+      <c r="M561" s="196">
+        <v>11</v>
+      </c>
+      <c r="N561" s="196">
+        <v>6200</v>
+      </c>
+      <c r="O561" s="196">
+        <v>50</v>
+      </c>
+      <c r="P561" s="196">
+        <v>11</v>
+      </c>
+      <c r="Q561" s="196">
+        <v>1119</v>
+      </c>
+      <c r="R561" s="196">
+        <v>10290</v>
+      </c>
+      <c r="S561" s="196">
+        <v>11409</v>
+      </c>
+      <c r="T561" s="196">
+        <v>9</v>
+      </c>
+      <c r="U561" s="196">
+        <v>5</v>
+      </c>
+      <c r="V561" s="196">
+        <v>116</v>
+      </c>
+      <c r="W561" s="196">
+        <v>49</v>
+      </c>
+      <c r="X561" s="196">
+        <v>125</v>
+      </c>
+      <c r="Y561" s="196">
+        <v>54</v>
+      </c>
+      <c r="Z561" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA561" s="196">
+        <v>13</v>
+      </c>
+      <c r="AB561" s="196">
+        <v>13</v>
+      </c>
+      <c r="AC561" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD561" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE561" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF561" s="196">
+        <v>6633</v>
+      </c>
+      <c r="AG561" s="196">
+        <v>6633</v>
+      </c>
+      <c r="AH561" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI561" s="196">
+        <v>1587794</v>
+      </c>
+      <c r="AJ561" s="196">
+        <v>7191</v>
+      </c>
+      <c r="AK561" s="197">
+        <v>1594985</v>
+      </c>
+    </row>
+    <row r="562" spans="1:37">
+      <c r="A562" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B562" s="192" t="s">
+        <v>64</v>
+      </c>
+      <c r="C562" s="193"/>
+      <c r="D562" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="E562" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F562" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G562" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H562" s="196">
+        <v>3210</v>
+      </c>
+      <c r="I562" s="196">
+        <v>22</v>
+      </c>
+      <c r="J562" s="196">
+        <v>0</v>
+      </c>
+      <c r="K562" s="196">
+        <v>19691</v>
+      </c>
+      <c r="L562" s="196">
+        <v>83</v>
+      </c>
+      <c r="M562" s="196">
+        <v>13</v>
+      </c>
+      <c r="N562" s="196">
+        <v>22901</v>
+      </c>
+      <c r="O562" s="196">
+        <v>105</v>
+      </c>
+      <c r="P562" s="196">
+        <v>13</v>
+      </c>
+      <c r="Q562" s="196">
+        <v>8657</v>
+      </c>
+      <c r="R562" s="196">
+        <v>43542</v>
+      </c>
+      <c r="S562" s="196">
+        <v>52199</v>
+      </c>
+      <c r="T562" s="196">
+        <v>52</v>
+      </c>
+      <c r="U562" s="196">
+        <v>23</v>
+      </c>
+      <c r="V562" s="196">
+        <v>224</v>
+      </c>
+      <c r="W562" s="196">
+        <v>96</v>
+      </c>
+      <c r="X562" s="196">
+        <v>276</v>
+      </c>
+      <c r="Y562" s="196">
+        <v>119</v>
+      </c>
+      <c r="Z562" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA562" s="196">
+        <v>15</v>
+      </c>
+      <c r="AB562" s="196">
+        <v>15</v>
+      </c>
+      <c r="AC562" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD562" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE562" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF562" s="196">
+        <v>23923</v>
+      </c>
+      <c r="AG562" s="196">
+        <v>23923</v>
+      </c>
+      <c r="AH562" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI562" s="196">
+        <v>6773597</v>
+      </c>
+      <c r="AJ562" s="196">
+        <v>12080</v>
+      </c>
+      <c r="AK562" s="197">
+        <v>6785677</v>
+      </c>
+    </row>
+    <row r="563" spans="1:37">
+      <c r="A563" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B563" s="192" t="s">
+        <v>67</v>
+      </c>
+      <c r="C563" s="193"/>
+      <c r="D563" s="194" t="s">
+        <v>191</v>
+      </c>
+      <c r="E563" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F563" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G563" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H563" s="196">
+        <v>80</v>
+      </c>
+      <c r="I563" s="196">
+        <v>0</v>
+      </c>
+      <c r="J563" s="196">
+        <v>0</v>
+      </c>
+      <c r="K563" s="196">
+        <v>512</v>
+      </c>
+      <c r="L563" s="196">
+        <v>0</v>
+      </c>
+      <c r="M563" s="196">
+        <v>0</v>
+      </c>
+      <c r="N563" s="196">
+        <v>592</v>
+      </c>
+      <c r="O563" s="196">
+        <v>0</v>
+      </c>
+      <c r="P563" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q563" s="196">
+        <v>192</v>
+      </c>
+      <c r="R563" s="196">
+        <v>996</v>
+      </c>
+      <c r="S563" s="196">
+        <v>1188</v>
+      </c>
+      <c r="T563" s="196">
+        <v>0</v>
+      </c>
+      <c r="U563" s="196">
+        <v>0</v>
+      </c>
+      <c r="V563" s="196">
+        <v>0</v>
+      </c>
+      <c r="W563" s="196">
+        <v>0</v>
+      </c>
+      <c r="X563" s="196">
+        <v>0</v>
+      </c>
+      <c r="Y563" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF563" s="196">
+        <v>623</v>
+      </c>
+      <c r="AG563" s="196">
+        <v>623</v>
+      </c>
+      <c r="AH563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI563" s="196">
+        <v>158911</v>
+      </c>
+      <c r="AJ563" s="196">
+        <v>0</v>
+      </c>
+      <c r="AK563" s="197">
+        <v>158911</v>
+      </c>
+    </row>
+    <row r="564" spans="1:37">
+      <c r="A564" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B564" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="C564" s="193"/>
+      <c r="D564" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="E564" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F564" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G564" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H564" s="196">
+        <v>12</v>
+      </c>
+      <c r="I564" s="196">
+        <v>0</v>
+      </c>
+      <c r="J564" s="196">
+        <v>0</v>
+      </c>
+      <c r="K564" s="196">
+        <v>357</v>
+      </c>
+      <c r="L564" s="196">
+        <v>4</v>
+      </c>
+      <c r="M564" s="196">
+        <v>0</v>
+      </c>
+      <c r="N564" s="196">
+        <v>369</v>
+      </c>
+      <c r="O564" s="196">
+        <v>4</v>
+      </c>
+      <c r="P564" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q564" s="196">
+        <v>41</v>
+      </c>
+      <c r="R564" s="196">
+        <v>611</v>
+      </c>
+      <c r="S564" s="196">
+        <v>652</v>
+      </c>
+      <c r="T564" s="196">
+        <v>0</v>
+      </c>
+      <c r="U564" s="196">
+        <v>0</v>
+      </c>
+      <c r="V564" s="196">
+        <v>9</v>
+      </c>
+      <c r="W564" s="196">
+        <v>4</v>
+      </c>
+      <c r="X564" s="196">
+        <v>9</v>
+      </c>
+      <c r="Y564" s="196">
+        <v>4</v>
+      </c>
+      <c r="Z564" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA564" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB564" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC564" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD564" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE564" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF564" s="196">
+        <v>388</v>
+      </c>
+      <c r="AG564" s="196">
+        <v>388</v>
+      </c>
+      <c r="AH564" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI564" s="196">
+        <v>86595</v>
+      </c>
+      <c r="AJ564" s="196">
+        <v>493</v>
+      </c>
+      <c r="AK564" s="197">
+        <v>87088</v>
+      </c>
+    </row>
+    <row r="565" spans="1:37">
+      <c r="A565" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B565" s="192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C565" s="193"/>
+      <c r="D565" s="194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E565" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F565" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G565" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H565" s="196">
+        <v>2760</v>
+      </c>
+      <c r="I565" s="196">
+        <v>16</v>
+      </c>
+      <c r="J565" s="196">
+        <v>0</v>
+      </c>
+      <c r="K565" s="196">
+        <v>18270</v>
+      </c>
+      <c r="L565" s="196">
+        <v>243</v>
+      </c>
+      <c r="M565" s="196">
+        <v>37</v>
+      </c>
+      <c r="N565" s="196">
+        <v>21030</v>
+      </c>
+      <c r="O565" s="196">
+        <v>259</v>
+      </c>
+      <c r="P565" s="196">
+        <v>37</v>
+      </c>
+      <c r="Q565" s="196">
+        <v>7170</v>
+      </c>
+      <c r="R565" s="196">
+        <v>39308</v>
+      </c>
+      <c r="S565" s="196">
+        <v>46478</v>
+      </c>
+      <c r="T565" s="196">
+        <v>36</v>
+      </c>
+      <c r="U565" s="196">
+        <v>19</v>
+      </c>
+      <c r="V565" s="196">
+        <v>671</v>
+      </c>
+      <c r="W565" s="196">
+        <v>275</v>
+      </c>
+      <c r="X565" s="196">
+        <v>707</v>
+      </c>
+      <c r="Y565" s="196">
+        <v>294</v>
+      </c>
+      <c r="Z565" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA565" s="196">
+        <v>42</v>
+      </c>
+      <c r="AB565" s="196">
+        <v>42</v>
+      </c>
+      <c r="AC565" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD565" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE565" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF565" s="196">
+        <v>22567</v>
+      </c>
+      <c r="AG565" s="196">
+        <v>22567</v>
+      </c>
+      <c r="AH565" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI565" s="196">
+        <v>6311231</v>
+      </c>
+      <c r="AJ565" s="196">
+        <v>29865</v>
+      </c>
+      <c r="AK565" s="197">
+        <v>6341096</v>
+      </c>
+    </row>
+    <row r="566" spans="1:37">
+      <c r="A566" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B566" s="192" t="s">
+        <v>195</v>
+      </c>
+      <c r="C566" s="193"/>
+      <c r="D566" s="194" t="s">
+        <v>196</v>
+      </c>
+      <c r="E566" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F566" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G566" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H566" s="196">
+        <v>235</v>
+      </c>
+      <c r="I566" s="196">
+        <v>2</v>
+      </c>
+      <c r="J566" s="196">
+        <v>0</v>
+      </c>
+      <c r="K566" s="196">
+        <v>2769</v>
+      </c>
+      <c r="L566" s="196">
+        <v>44</v>
+      </c>
+      <c r="M566" s="196">
+        <v>3</v>
+      </c>
+      <c r="N566" s="196">
+        <v>3004</v>
+      </c>
+      <c r="O566" s="196">
+        <v>46</v>
+      </c>
+      <c r="P566" s="196">
+        <v>3</v>
+      </c>
+      <c r="Q566" s="196">
+        <v>579</v>
+      </c>
+      <c r="R566" s="196">
+        <v>5322</v>
+      </c>
+      <c r="S566" s="196">
+        <v>5901</v>
+      </c>
+      <c r="T566" s="196">
+        <v>5</v>
+      </c>
+      <c r="U566" s="196">
+        <v>2</v>
+      </c>
+      <c r="V566" s="196">
+        <v>108</v>
+      </c>
+      <c r="W566" s="196">
+        <v>47</v>
+      </c>
+      <c r="X566" s="196">
+        <v>113</v>
+      </c>
+      <c r="Y566" s="196">
+        <v>49</v>
+      </c>
+      <c r="Z566" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA566" s="196">
+        <v>3</v>
+      </c>
+      <c r="AB566" s="196">
+        <v>3</v>
+      </c>
+      <c r="AC566" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD566" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE566" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF566" s="196">
+        <v>3261</v>
+      </c>
+      <c r="AG566" s="196">
+        <v>3261</v>
+      </c>
+      <c r="AH566" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI566" s="196">
+        <v>746232</v>
+      </c>
+      <c r="AJ566" s="196">
+        <v>2395</v>
+      </c>
+      <c r="AK566" s="197">
+        <v>748627</v>
+      </c>
+    </row>
+    <row r="567" spans="1:37">
+      <c r="A567" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B567" s="192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C567" s="193"/>
+      <c r="D567" s="194" t="s">
+        <v>198</v>
+      </c>
+      <c r="E567" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F567" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G567" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H567" s="196">
+        <v>251</v>
+      </c>
+      <c r="I567" s="196">
+        <v>2</v>
+      </c>
+      <c r="J567" s="196">
+        <v>1</v>
+      </c>
+      <c r="K567" s="196">
+        <v>3798</v>
+      </c>
+      <c r="L567" s="196">
+        <v>11</v>
+      </c>
+      <c r="M567" s="196">
+        <v>1</v>
+      </c>
+      <c r="N567" s="196">
+        <v>4049</v>
+      </c>
+      <c r="O567" s="196">
+        <v>13</v>
+      </c>
+      <c r="P567" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q567" s="196">
+        <v>604</v>
+      </c>
+      <c r="R567" s="196">
+        <v>6327</v>
+      </c>
+      <c r="S567" s="196">
+        <v>6931</v>
+      </c>
+      <c r="T567" s="196">
+        <v>5</v>
+      </c>
+      <c r="U567" s="196">
+        <v>3</v>
+      </c>
+      <c r="V567" s="196">
+        <v>24</v>
+      </c>
+      <c r="W567" s="196">
+        <v>11</v>
+      </c>
+      <c r="X567" s="196">
+        <v>29</v>
+      </c>
+      <c r="Y567" s="196">
+        <v>14</v>
+      </c>
+      <c r="Z567" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA567" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB567" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC567" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD567" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE567" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF567" s="196">
+        <v>4327</v>
+      </c>
+      <c r="AG567" s="196">
+        <v>4327</v>
+      </c>
+      <c r="AH567" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI567" s="196">
+        <v>945197</v>
+      </c>
+      <c r="AJ567" s="196">
+        <v>2425</v>
+      </c>
+      <c r="AK567" s="197">
+        <v>947622</v>
+      </c>
+    </row>
+    <row r="568" spans="1:37">
+      <c r="A568" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B568" s="192" t="s">
+        <v>199</v>
+      </c>
+      <c r="C568" s="193"/>
+      <c r="D568" s="194" t="s">
+        <v>200</v>
+      </c>
+      <c r="E568" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F568" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G568" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H568" s="196">
+        <v>8566</v>
+      </c>
+      <c r="I568" s="196">
+        <v>190</v>
+      </c>
+      <c r="J568" s="196">
+        <v>1</v>
+      </c>
+      <c r="K568" s="196">
+        <v>99109</v>
+      </c>
+      <c r="L568" s="196">
+        <v>1915</v>
+      </c>
+      <c r="M568" s="196">
+        <v>971</v>
+      </c>
+      <c r="N568" s="196">
+        <v>107675</v>
+      </c>
+      <c r="O568" s="196">
+        <v>2105</v>
+      </c>
+      <c r="P568" s="196">
+        <v>972</v>
+      </c>
+      <c r="Q568" s="196">
+        <v>22023</v>
+      </c>
+      <c r="R568" s="196">
+        <v>190791</v>
+      </c>
+      <c r="S568" s="196">
+        <v>212814</v>
+      </c>
+      <c r="T568" s="196">
+        <v>436</v>
+      </c>
+      <c r="U568" s="196">
+        <v>267</v>
+      </c>
+      <c r="V568" s="196">
+        <v>4229</v>
+      </c>
+      <c r="W568" s="196">
+        <v>2434</v>
+      </c>
+      <c r="X568" s="196">
+        <v>4665</v>
+      </c>
+      <c r="Y568" s="196">
+        <v>2701</v>
+      </c>
+      <c r="Z568" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA568" s="196">
+        <v>1269</v>
+      </c>
+      <c r="AB568" s="196">
+        <v>1271</v>
+      </c>
+      <c r="AC568" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD568" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE568" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF568" s="196">
+        <v>116017</v>
+      </c>
+      <c r="AG568" s="196">
+        <v>116017</v>
+      </c>
+      <c r="AH568" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI568" s="196">
+        <v>28782686</v>
+      </c>
+      <c r="AJ568" s="196">
+        <v>426453</v>
+      </c>
+      <c r="AK568" s="197">
+        <v>29209139</v>
+      </c>
+    </row>
+    <row r="569" spans="1:37">
+      <c r="A569" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B569" s="192" t="s">
+        <v>201</v>
+      </c>
+      <c r="C569" s="193"/>
+      <c r="D569" s="194" t="s">
+        <v>202</v>
+      </c>
+      <c r="E569" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F569" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G569" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H569" s="196">
+        <v>539</v>
+      </c>
+      <c r="I569" s="196">
+        <v>8</v>
+      </c>
+      <c r="J569" s="196">
+        <v>0</v>
+      </c>
+      <c r="K569" s="196">
+        <v>7701</v>
+      </c>
+      <c r="L569" s="196">
+        <v>53</v>
+      </c>
+      <c r="M569" s="196">
+        <v>27</v>
+      </c>
+      <c r="N569" s="196">
+        <v>8240</v>
+      </c>
+      <c r="O569" s="196">
+        <v>61</v>
+      </c>
+      <c r="P569" s="196">
+        <v>27</v>
+      </c>
+      <c r="Q569" s="196">
+        <v>1360</v>
+      </c>
+      <c r="R569" s="196">
+        <v>13482</v>
+      </c>
+      <c r="S569" s="196">
+        <v>14842</v>
+      </c>
+      <c r="T569" s="196">
+        <v>22</v>
+      </c>
+      <c r="U569" s="196">
+        <v>11</v>
+      </c>
+      <c r="V569" s="196">
+        <v>133</v>
+      </c>
+      <c r="W569" s="196">
+        <v>72</v>
+      </c>
+      <c r="X569" s="196">
+        <v>155</v>
+      </c>
+      <c r="Y569" s="196">
+        <v>83</v>
+      </c>
+      <c r="Z569" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA569" s="196">
+        <v>30</v>
+      </c>
+      <c r="AB569" s="196">
+        <v>30</v>
+      </c>
+      <c r="AC569" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD569" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE569" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF569" s="196">
+        <v>8695</v>
+      </c>
+      <c r="AG569" s="196">
+        <v>8695</v>
+      </c>
+      <c r="AH569" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI569" s="196">
+        <v>1883162</v>
+      </c>
+      <c r="AJ569" s="196">
+        <v>12993</v>
+      </c>
+      <c r="AK569" s="197">
+        <v>1896155</v>
+      </c>
+    </row>
+    <row r="570" spans="1:37">
+      <c r="A570" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B570" s="192" t="s">
+        <v>203</v>
+      </c>
+      <c r="C570" s="193"/>
+      <c r="D570" s="194" t="s">
+        <v>204</v>
+      </c>
+      <c r="E570" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F570" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G570" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H570" s="196">
+        <v>65</v>
+      </c>
+      <c r="I570" s="196">
+        <v>0</v>
+      </c>
+      <c r="J570" s="196">
+        <v>0</v>
+      </c>
+      <c r="K570" s="196">
+        <v>1127</v>
+      </c>
+      <c r="L570" s="196">
+        <v>0</v>
+      </c>
+      <c r="M570" s="196">
+        <v>1</v>
+      </c>
+      <c r="N570" s="196">
+        <v>1192</v>
+      </c>
+      <c r="O570" s="196">
+        <v>0</v>
+      </c>
+      <c r="P570" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q570" s="196">
+        <v>151</v>
+      </c>
+      <c r="R570" s="196">
+        <v>2022</v>
+      </c>
+      <c r="S570" s="196">
+        <v>2173</v>
+      </c>
+      <c r="T570" s="196">
+        <v>0</v>
+      </c>
+      <c r="U570" s="196">
+        <v>0</v>
+      </c>
+      <c r="V570" s="196">
+        <v>0</v>
+      </c>
+      <c r="W570" s="196">
+        <v>0</v>
+      </c>
+      <c r="X570" s="196">
+        <v>0</v>
+      </c>
+      <c r="Y570" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z570" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA570" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB570" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC570" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD570" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE570" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF570" s="196">
+        <v>1238</v>
+      </c>
+      <c r="AG570" s="196">
+        <v>1238</v>
+      </c>
+      <c r="AH570" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI570" s="196">
+        <v>284075</v>
+      </c>
+      <c r="AJ570" s="196">
+        <v>169</v>
+      </c>
+      <c r="AK570" s="197">
+        <v>284244</v>
+      </c>
+    </row>
+    <row r="571" spans="1:37">
+      <c r="A571" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B571" s="192" t="s">
+        <v>73</v>
+      </c>
+      <c r="C571" s="193"/>
+      <c r="D571" s="194" t="s">
+        <v>205</v>
+      </c>
+      <c r="E571" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F571" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G571" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H571" s="196">
+        <v>13204</v>
+      </c>
+      <c r="I571" s="196">
+        <v>102</v>
+      </c>
+      <c r="J571" s="196">
+        <v>2</v>
+      </c>
+      <c r="K571" s="196">
+        <v>102403</v>
+      </c>
+      <c r="L571" s="196">
+        <v>590</v>
+      </c>
+      <c r="M571" s="196">
+        <v>144</v>
+      </c>
+      <c r="N571" s="196">
+        <v>115607</v>
+      </c>
+      <c r="O571" s="196">
+        <v>692</v>
+      </c>
+      <c r="P571" s="196">
+        <v>146</v>
+      </c>
+      <c r="Q571" s="196">
+        <v>35791</v>
+      </c>
+      <c r="R571" s="196">
+        <v>214763</v>
+      </c>
+      <c r="S571" s="196">
+        <v>250554</v>
+      </c>
+      <c r="T571" s="196">
+        <v>247</v>
+      </c>
+      <c r="U571" s="196">
+        <v>126</v>
+      </c>
+      <c r="V571" s="196">
+        <v>1574</v>
+      </c>
+      <c r="W571" s="196">
+        <v>664</v>
+      </c>
+      <c r="X571" s="196">
+        <v>1821</v>
+      </c>
+      <c r="Y571" s="196">
+        <v>790</v>
+      </c>
+      <c r="Z571" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA571" s="196">
+        <v>188</v>
+      </c>
+      <c r="AB571" s="196">
+        <v>190</v>
+      </c>
+      <c r="AC571" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD571" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE571" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF571" s="196">
+        <v>121441</v>
+      </c>
+      <c r="AG571" s="196">
+        <v>121441</v>
+      </c>
+      <c r="AH571" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI571" s="196">
+        <v>33017171</v>
+      </c>
+      <c r="AJ571" s="196">
+        <v>92949</v>
+      </c>
+      <c r="AK571" s="197">
+        <v>33110120</v>
+      </c>
+    </row>
+    <row r="572" spans="1:37">
+      <c r="A572" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B572" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="C572" s="193"/>
+      <c r="D572" s="194" t="s">
+        <v>206</v>
+      </c>
+      <c r="E572" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F572" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G572" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H572" s="196">
+        <v>12216</v>
+      </c>
+      <c r="I572" s="196">
+        <v>500</v>
+      </c>
+      <c r="J572" s="196">
+        <v>8</v>
+      </c>
+      <c r="K572" s="196">
+        <v>80687</v>
+      </c>
+      <c r="L572" s="196">
+        <v>1092</v>
+      </c>
+      <c r="M572" s="196">
+        <v>517</v>
+      </c>
+      <c r="N572" s="196">
+        <v>92903</v>
+      </c>
+      <c r="O572" s="196">
+        <v>1592</v>
+      </c>
+      <c r="P572" s="196">
+        <v>525</v>
+      </c>
+      <c r="Q572" s="196">
+        <v>32696</v>
+      </c>
+      <c r="R572" s="196">
+        <v>158459</v>
+      </c>
+      <c r="S572" s="196">
+        <v>191155</v>
+      </c>
+      <c r="T572" s="196">
+        <v>1341</v>
+      </c>
+      <c r="U572" s="196">
+        <v>830</v>
+      </c>
+      <c r="V572" s="196">
+        <v>2657</v>
+      </c>
+      <c r="W572" s="196">
+        <v>1616</v>
+      </c>
+      <c r="X572" s="196">
+        <v>3998</v>
+      </c>
+      <c r="Y572" s="196">
+        <v>2446</v>
+      </c>
+      <c r="Z572" s="196">
+        <v>16</v>
+      </c>
+      <c r="AA572" s="196">
+        <v>713</v>
+      </c>
+      <c r="AB572" s="196">
+        <v>729</v>
+      </c>
+      <c r="AC572" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD572" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE572" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF572" s="196">
+        <v>108543</v>
+      </c>
+      <c r="AG572" s="196">
+        <v>108543</v>
+      </c>
+      <c r="AH572" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI572" s="196">
+        <v>27200558</v>
+      </c>
+      <c r="AJ572" s="196">
+        <v>349013</v>
+      </c>
+      <c r="AK572" s="197">
+        <v>27549571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:37">
+      <c r="A573" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B573" s="192" t="s">
+        <v>79</v>
+      </c>
+      <c r="C573" s="193"/>
+      <c r="D573" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="E573" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F573" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G573" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H573" s="196">
+        <v>253</v>
+      </c>
+      <c r="I573" s="196">
+        <v>1</v>
+      </c>
+      <c r="J573" s="196">
+        <v>0</v>
+      </c>
+      <c r="K573" s="196">
+        <v>1852</v>
+      </c>
+      <c r="L573" s="196">
+        <v>19</v>
+      </c>
+      <c r="M573" s="196">
+        <v>2</v>
+      </c>
+      <c r="N573" s="196">
+        <v>2105</v>
+      </c>
+      <c r="O573" s="196">
+        <v>20</v>
+      </c>
+      <c r="P573" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q573" s="196">
+        <v>693</v>
+      </c>
+      <c r="R573" s="196">
+        <v>3878</v>
+      </c>
+      <c r="S573" s="196">
+        <v>4571</v>
+      </c>
+      <c r="T573" s="196">
+        <v>1</v>
+      </c>
+      <c r="U573" s="196">
+        <v>1</v>
+      </c>
+      <c r="V573" s="196">
+        <v>56</v>
+      </c>
+      <c r="W573" s="196">
+        <v>20</v>
+      </c>
+      <c r="X573" s="196">
+        <v>57</v>
+      </c>
+      <c r="Y573" s="196">
+        <v>21</v>
+      </c>
+      <c r="Z573" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA573" s="196">
+        <v>3</v>
+      </c>
+      <c r="AB573" s="196">
+        <v>3</v>
+      </c>
+      <c r="AC573" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD573" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE573" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF573" s="196">
+        <v>2205</v>
+      </c>
+      <c r="AG573" s="196">
+        <v>2205</v>
+      </c>
+      <c r="AH573" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI573" s="196">
+        <v>590343</v>
+      </c>
+      <c r="AJ573" s="196">
+        <v>1503</v>
+      </c>
+      <c r="AK573" s="197">
+        <v>591846</v>
+      </c>
+    </row>
+    <row r="574" spans="1:37">
+      <c r="A574" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B574" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="C574" s="193"/>
+      <c r="D574" s="194" t="s">
+        <v>208</v>
+      </c>
+      <c r="E574" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F574" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G574" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H574" s="196">
+        <v>20696</v>
+      </c>
+      <c r="I574" s="196">
+        <v>120</v>
+      </c>
+      <c r="J574" s="196">
+        <v>5</v>
+      </c>
+      <c r="K574" s="196">
+        <v>135245</v>
+      </c>
+      <c r="L574" s="196">
+        <v>833</v>
+      </c>
+      <c r="M574" s="196">
+        <v>278</v>
+      </c>
+      <c r="N574" s="196">
+        <v>155941</v>
+      </c>
+      <c r="O574" s="196">
+        <v>953</v>
+      </c>
+      <c r="P574" s="196">
+        <v>283</v>
+      </c>
+      <c r="Q574" s="196">
+        <v>54188</v>
+      </c>
+      <c r="R574" s="196">
+        <v>281150</v>
+      </c>
+      <c r="S574" s="196">
+        <v>335338</v>
+      </c>
+      <c r="T574" s="196">
+        <v>312</v>
+      </c>
+      <c r="U574" s="196">
+        <v>135</v>
+      </c>
+      <c r="V574" s="196">
+        <v>2221</v>
+      </c>
+      <c r="W574" s="196">
+        <v>970</v>
+      </c>
+      <c r="X574" s="196">
+        <v>2533</v>
+      </c>
+      <c r="Y574" s="196">
+        <v>1105</v>
+      </c>
+      <c r="Z574" s="196">
+        <v>6</v>
+      </c>
+      <c r="AA574" s="196">
+        <v>381</v>
+      </c>
+      <c r="AB574" s="196">
+        <v>387</v>
+      </c>
+      <c r="AC574" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD574" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE574" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF574" s="196">
+        <v>164638</v>
+      </c>
+      <c r="AG574" s="196">
+        <v>164638</v>
+      </c>
+      <c r="AH574" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI574" s="196">
+        <v>45231676</v>
+      </c>
+      <c r="AJ574" s="196">
+        <v>153428</v>
+      </c>
+      <c r="AK574" s="197">
+        <v>45385104</v>
+      </c>
+    </row>
+    <row r="575" spans="1:37">
+      <c r="A575" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B575" s="192" t="s">
+        <v>85</v>
+      </c>
+      <c r="C575" s="193"/>
+      <c r="D575" s="194" t="s">
+        <v>209</v>
+      </c>
+      <c r="E575" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F575" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G575" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H575" s="196">
+        <v>10207</v>
+      </c>
+      <c r="I575" s="196">
+        <v>289</v>
+      </c>
+      <c r="J575" s="196">
+        <v>6</v>
+      </c>
+      <c r="K575" s="196">
+        <v>119150</v>
+      </c>
+      <c r="L575" s="196">
+        <v>1586</v>
+      </c>
+      <c r="M575" s="196">
+        <v>590</v>
+      </c>
+      <c r="N575" s="196">
+        <v>129357</v>
+      </c>
+      <c r="O575" s="196">
+        <v>1875</v>
+      </c>
+      <c r="P575" s="196">
+        <v>596</v>
+      </c>
+      <c r="Q575" s="196">
+        <v>27896</v>
+      </c>
+      <c r="R575" s="196">
+        <v>223755</v>
+      </c>
+      <c r="S575" s="196">
+        <v>251651</v>
+      </c>
+      <c r="T575" s="196">
+        <v>639</v>
+      </c>
+      <c r="U575" s="196">
+        <v>381</v>
+      </c>
+      <c r="V575" s="196">
+        <v>3803</v>
+      </c>
+      <c r="W575" s="196">
+        <v>1871</v>
+      </c>
+      <c r="X575" s="196">
+        <v>4442</v>
+      </c>
+      <c r="Y575" s="196">
+        <v>2252</v>
+      </c>
+      <c r="Z575" s="196">
+        <v>12</v>
+      </c>
+      <c r="AA575" s="196">
+        <v>741</v>
+      </c>
+      <c r="AB575" s="196">
+        <v>753</v>
+      </c>
+      <c r="AC575" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD575" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE575" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF575" s="196">
+        <v>153029</v>
+      </c>
+      <c r="AG575" s="196">
+        <v>153029</v>
+      </c>
+      <c r="AH575" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI575" s="196">
+        <v>33330277</v>
+      </c>
+      <c r="AJ575" s="196">
+        <v>313687</v>
+      </c>
+      <c r="AK575" s="197">
+        <v>33643964</v>
+      </c>
+    </row>
+    <row r="576" spans="1:37">
+      <c r="A576" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B576" s="192" t="s">
+        <v>86</v>
+      </c>
+      <c r="C576" s="193"/>
+      <c r="D576" s="194" t="s">
+        <v>210</v>
+      </c>
+      <c r="E576" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F576" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G576" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H576" s="196">
+        <v>1813</v>
+      </c>
+      <c r="I576" s="196">
+        <v>118</v>
+      </c>
+      <c r="J576" s="196">
+        <v>12</v>
+      </c>
+      <c r="K576" s="196">
+        <v>29355</v>
+      </c>
+      <c r="L576" s="196">
+        <v>614</v>
+      </c>
+      <c r="M576" s="196">
+        <v>977</v>
+      </c>
+      <c r="N576" s="196">
+        <v>31168</v>
+      </c>
+      <c r="O576" s="196">
+        <v>732</v>
+      </c>
+      <c r="P576" s="196">
+        <v>989</v>
+      </c>
+      <c r="Q576" s="196">
+        <v>3861</v>
+      </c>
+      <c r="R576" s="196">
+        <v>41415</v>
+      </c>
+      <c r="S576" s="196">
+        <v>45276</v>
+      </c>
+      <c r="T576" s="196">
+        <v>228</v>
+      </c>
+      <c r="U576" s="196">
+        <v>139</v>
+      </c>
+      <c r="V576" s="196">
+        <v>1200</v>
+      </c>
+      <c r="W576" s="196">
+        <v>779</v>
+      </c>
+      <c r="X576" s="196">
+        <v>1428</v>
+      </c>
+      <c r="Y576" s="196">
+        <v>918</v>
+      </c>
+      <c r="Z576" s="196">
+        <v>17</v>
+      </c>
+      <c r="AA576" s="196">
+        <v>1009</v>
+      </c>
+      <c r="AB576" s="196">
+        <v>1026</v>
+      </c>
+      <c r="AC576" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD576" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE576" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF576" s="196">
+        <v>35566</v>
+      </c>
+      <c r="AG576" s="196">
+        <v>35566</v>
+      </c>
+      <c r="AH576" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI576" s="196">
+        <v>6586764</v>
+      </c>
+      <c r="AJ576" s="196">
+        <v>249291</v>
+      </c>
+      <c r="AK576" s="197">
+        <v>6836055</v>
+      </c>
+    </row>
+    <row r="577" spans="1:37">
+      <c r="A577" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B577" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="C577" s="193"/>
+      <c r="D577" s="194" t="s">
+        <v>211</v>
+      </c>
+      <c r="E577" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F577" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G577" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H577" s="196">
+        <v>5907</v>
+      </c>
+      <c r="I577" s="196">
+        <v>47</v>
+      </c>
+      <c r="J577" s="196">
+        <v>0</v>
+      </c>
+      <c r="K577" s="196">
+        <v>39443</v>
+      </c>
+      <c r="L577" s="196">
+        <v>391</v>
+      </c>
+      <c r="M577" s="196">
+        <v>117</v>
+      </c>
+      <c r="N577" s="196">
+        <v>45350</v>
+      </c>
+      <c r="O577" s="196">
+        <v>438</v>
+      </c>
+      <c r="P577" s="196">
+        <v>117</v>
+      </c>
+      <c r="Q577" s="196">
+        <v>14512</v>
+      </c>
+      <c r="R577" s="196">
+        <v>84020</v>
+      </c>
+      <c r="S577" s="196">
+        <v>98532</v>
+      </c>
+      <c r="T577" s="196">
+        <v>111</v>
+      </c>
+      <c r="U577" s="196">
+        <v>52</v>
+      </c>
+      <c r="V577" s="196">
+        <v>1143</v>
+      </c>
+      <c r="W577" s="196">
+        <v>490</v>
+      </c>
+      <c r="X577" s="196">
+        <v>1254</v>
+      </c>
+      <c r="Y577" s="196">
+        <v>542</v>
+      </c>
+      <c r="Z577" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA577" s="196">
+        <v>162</v>
+      </c>
+      <c r="AB577" s="196">
+        <v>162</v>
+      </c>
+      <c r="AC577" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD577" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE577" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF577" s="196">
+        <v>47959</v>
+      </c>
+      <c r="AG577" s="196">
+        <v>47959</v>
+      </c>
+      <c r="AH577" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI577" s="196">
+        <v>12904724</v>
+      </c>
+      <c r="AJ577" s="196">
+        <v>69739</v>
+      </c>
+      <c r="AK577" s="197">
+        <v>12974463</v>
+      </c>
+    </row>
+    <row r="578" spans="1:37">
+      <c r="A578" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B578" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="C578" s="193"/>
+      <c r="D578" s="194" t="s">
+        <v>212</v>
+      </c>
+      <c r="E578" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F578" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G578" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H578" s="196">
+        <v>772</v>
+      </c>
+      <c r="I578" s="196">
+        <v>7</v>
+      </c>
+      <c r="J578" s="196">
+        <v>0</v>
+      </c>
+      <c r="K578" s="196">
+        <v>8532</v>
+      </c>
+      <c r="L578" s="196">
+        <v>29</v>
+      </c>
+      <c r="M578" s="196">
+        <v>10</v>
+      </c>
+      <c r="N578" s="196">
+        <v>9304</v>
+      </c>
+      <c r="O578" s="196">
+        <v>36</v>
+      </c>
+      <c r="P578" s="196">
+        <v>10</v>
+      </c>
+      <c r="Q578" s="196">
+        <v>1932</v>
+      </c>
+      <c r="R578" s="196">
+        <v>14032</v>
+      </c>
+      <c r="S578" s="196">
+        <v>15964</v>
+      </c>
+      <c r="T578" s="196">
+        <v>24</v>
+      </c>
+      <c r="U578" s="196">
+        <v>8</v>
+      </c>
+      <c r="V578" s="196">
+        <v>69</v>
+      </c>
+      <c r="W578" s="196">
+        <v>30</v>
+      </c>
+      <c r="X578" s="196">
+        <v>93</v>
+      </c>
+      <c r="Y578" s="196">
+        <v>38</v>
+      </c>
+      <c r="Z578" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA578" s="196">
+        <v>11</v>
+      </c>
+      <c r="AB578" s="196">
+        <v>11</v>
+      </c>
+      <c r="AC578" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD578" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE578" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF578" s="196">
+        <v>9663</v>
+      </c>
+      <c r="AG578" s="196">
+        <v>9663</v>
+      </c>
+      <c r="AH578" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI578" s="196">
+        <v>2124863</v>
+      </c>
+      <c r="AJ578" s="196">
+        <v>5072</v>
+      </c>
+      <c r="AK578" s="197">
+        <v>2129935</v>
+      </c>
+    </row>
+    <row r="579" spans="1:37">
+      <c r="A579" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B579" s="192" t="s">
+        <v>89</v>
+      </c>
+      <c r="C579" s="193"/>
+      <c r="D579" s="194" t="s">
+        <v>213</v>
+      </c>
+      <c r="E579" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F579" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G579" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H579" s="196">
+        <v>567</v>
+      </c>
+      <c r="I579" s="196">
+        <v>16</v>
+      </c>
+      <c r="J579" s="196">
+        <v>1</v>
+      </c>
+      <c r="K579" s="196">
+        <v>11602</v>
+      </c>
+      <c r="L579" s="196">
+        <v>352</v>
+      </c>
+      <c r="M579" s="196">
+        <v>123</v>
+      </c>
+      <c r="N579" s="196">
+        <v>12169</v>
+      </c>
+      <c r="O579" s="196">
+        <v>368</v>
+      </c>
+      <c r="P579" s="196">
+        <v>124</v>
+      </c>
+      <c r="Q579" s="196">
+        <v>1374</v>
+      </c>
+      <c r="R579" s="196">
+        <v>21026</v>
+      </c>
+      <c r="S579" s="196">
+        <v>22400</v>
+      </c>
+      <c r="T579" s="196">
+        <v>31</v>
+      </c>
+      <c r="U579" s="196">
+        <v>19</v>
+      </c>
+      <c r="V579" s="196">
+        <v>869</v>
+      </c>
+      <c r="W579" s="196">
+        <v>450</v>
+      </c>
+      <c r="X579" s="196">
+        <v>900</v>
+      </c>
+      <c r="Y579" s="196">
+        <v>469</v>
+      </c>
+      <c r="Z579" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA579" s="196">
+        <v>158</v>
+      </c>
+      <c r="AB579" s="196">
+        <v>159</v>
+      </c>
+      <c r="AC579" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD579" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE579" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF579" s="196">
+        <v>13195</v>
+      </c>
+      <c r="AG579" s="196">
+        <v>13195</v>
+      </c>
+      <c r="AH579" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI579" s="196">
+        <v>2970602</v>
+      </c>
+      <c r="AJ579" s="196">
+        <v>59436</v>
+      </c>
+      <c r="AK579" s="197">
+        <v>3030038</v>
+      </c>
+    </row>
+    <row r="580" spans="1:37">
+      <c r="A580" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B580" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="C580" s="193"/>
+      <c r="D580" s="194" t="s">
+        <v>214</v>
+      </c>
+      <c r="E580" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F580" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G580" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H580" s="196">
+        <v>2232</v>
+      </c>
+      <c r="I580" s="196">
+        <v>19</v>
+      </c>
+      <c r="J580" s="196">
+        <v>0</v>
+      </c>
+      <c r="K580" s="196">
+        <v>17949</v>
+      </c>
+      <c r="L580" s="196">
+        <v>155</v>
+      </c>
+      <c r="M580" s="196">
+        <v>71</v>
+      </c>
+      <c r="N580" s="196">
+        <v>20181</v>
+      </c>
+      <c r="O580" s="196">
+        <v>174</v>
+      </c>
+      <c r="P580" s="196">
+        <v>71</v>
+      </c>
+      <c r="Q580" s="196">
+        <v>5778</v>
+      </c>
+      <c r="R580" s="196">
+        <v>33620</v>
+      </c>
+      <c r="S580" s="196">
+        <v>39398</v>
+      </c>
+      <c r="T580" s="196">
+        <v>47</v>
+      </c>
+      <c r="U580" s="196">
+        <v>18</v>
+      </c>
+      <c r="V580" s="196">
+        <v>421</v>
+      </c>
+      <c r="W580" s="196">
+        <v>171</v>
+      </c>
+      <c r="X580" s="196">
+        <v>468</v>
+      </c>
+      <c r="Y580" s="196">
+        <v>189</v>
+      </c>
+      <c r="Z580" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA580" s="196">
+        <v>80</v>
+      </c>
+      <c r="AB580" s="196">
+        <v>80</v>
+      </c>
+      <c r="AC580" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD580" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE580" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF580" s="196">
+        <v>23402</v>
+      </c>
+      <c r="AG580" s="196">
+        <v>23402</v>
+      </c>
+      <c r="AH580" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI580" s="196">
+        <v>5365929</v>
+      </c>
+      <c r="AJ580" s="196">
+        <v>28732</v>
+      </c>
+      <c r="AK580" s="197">
+        <v>5394661</v>
+      </c>
+    </row>
+    <row r="581" spans="1:37">
+      <c r="A581" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B581" s="192" t="s">
+        <v>91</v>
+      </c>
+      <c r="C581" s="193"/>
+      <c r="D581" s="194" t="s">
+        <v>215</v>
+      </c>
+      <c r="E581" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F581" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G581" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H581" s="196">
+        <v>3163</v>
+      </c>
+      <c r="I581" s="196">
+        <v>79</v>
+      </c>
+      <c r="J581" s="196">
+        <v>7</v>
+      </c>
+      <c r="K581" s="196">
+        <v>39376</v>
+      </c>
+      <c r="L581" s="196">
+        <v>637</v>
+      </c>
+      <c r="M581" s="196">
+        <v>461</v>
+      </c>
+      <c r="N581" s="196">
+        <v>42539</v>
+      </c>
+      <c r="O581" s="196">
+        <v>716</v>
+      </c>
+      <c r="P581" s="196">
+        <v>468</v>
+      </c>
+      <c r="Q581" s="196">
+        <v>7566</v>
+      </c>
+      <c r="R581" s="196">
+        <v>72130</v>
+      </c>
+      <c r="S581" s="196">
+        <v>79696</v>
+      </c>
+      <c r="T581" s="196">
+        <v>160</v>
+      </c>
+      <c r="U581" s="196">
+        <v>98</v>
+      </c>
+      <c r="V581" s="196">
+        <v>1366</v>
+      </c>
+      <c r="W581" s="196">
+        <v>815</v>
+      </c>
+      <c r="X581" s="196">
+        <v>1526</v>
+      </c>
+      <c r="Y581" s="196">
+        <v>913</v>
+      </c>
+      <c r="Z581" s="196">
+        <v>18</v>
+      </c>
+      <c r="AA581" s="196">
+        <v>639</v>
+      </c>
+      <c r="AB581" s="196">
+        <v>657</v>
+      </c>
+      <c r="AC581" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD581" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE581" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF581" s="196">
+        <v>45427</v>
+      </c>
+      <c r="AG581" s="196">
+        <v>45427</v>
+      </c>
+      <c r="AH581" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI581" s="196">
+        <v>10658069</v>
+      </c>
+      <c r="AJ581" s="196">
+        <v>171092</v>
+      </c>
+      <c r="AK581" s="197">
+        <v>10829161</v>
+      </c>
+    </row>
+    <row r="582" spans="1:37">
+      <c r="A582" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B582" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="C582" s="193"/>
+      <c r="D582" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="E582" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F582" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G582" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H582" s="196">
+        <v>970</v>
+      </c>
+      <c r="I582" s="196">
+        <v>3</v>
+      </c>
+      <c r="J582" s="196">
+        <v>0</v>
+      </c>
+      <c r="K582" s="196">
+        <v>13784</v>
+      </c>
+      <c r="L582" s="196">
+        <v>55</v>
+      </c>
+      <c r="M582" s="196">
+        <v>14</v>
+      </c>
+      <c r="N582" s="196">
+        <v>14754</v>
+      </c>
+      <c r="O582" s="196">
+        <v>58</v>
+      </c>
+      <c r="P582" s="196">
+        <v>14</v>
+      </c>
+      <c r="Q582" s="196">
+        <v>2451</v>
+      </c>
+      <c r="R582" s="196">
+        <v>23396</v>
+      </c>
+      <c r="S582" s="196">
+        <v>25847</v>
+      </c>
+      <c r="T582" s="196">
+        <v>7</v>
+      </c>
+      <c r="U582" s="196">
+        <v>3</v>
+      </c>
+      <c r="V582" s="196">
+        <v>120</v>
+      </c>
+      <c r="W582" s="196">
+        <v>66</v>
+      </c>
+      <c r="X582" s="196">
+        <v>127</v>
+      </c>
+      <c r="Y582" s="196">
+        <v>69</v>
+      </c>
+      <c r="Z582" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA582" s="196">
+        <v>17</v>
+      </c>
+      <c r="AB582" s="196">
+        <v>17</v>
+      </c>
+      <c r="AC582" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD582" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE582" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF582" s="196">
+        <v>16471</v>
+      </c>
+      <c r="AG582" s="196">
+        <v>16471</v>
+      </c>
+      <c r="AH582" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI582" s="196">
+        <v>3519719</v>
+      </c>
+      <c r="AJ582" s="196">
+        <v>8327</v>
+      </c>
+      <c r="AK582" s="197">
+        <v>3528046</v>
+      </c>
+    </row>
+    <row r="583" spans="1:37">
+      <c r="A583" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B583" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="C583" s="193"/>
+      <c r="D583" s="194" t="s">
+        <v>217</v>
+      </c>
+      <c r="E583" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F583" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G583" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H583" s="196">
+        <v>1054</v>
+      </c>
+      <c r="I583" s="196">
+        <v>6</v>
+      </c>
+      <c r="J583" s="196">
+        <v>0</v>
+      </c>
+      <c r="K583" s="196">
+        <v>11161</v>
+      </c>
+      <c r="L583" s="196">
+        <v>19</v>
+      </c>
+      <c r="M583" s="196">
+        <v>14</v>
+      </c>
+      <c r="N583" s="196">
+        <v>12215</v>
+      </c>
+      <c r="O583" s="196">
+        <v>25</v>
+      </c>
+      <c r="P583" s="196">
+        <v>14</v>
+      </c>
+      <c r="Q583" s="196">
+        <v>2499</v>
+      </c>
+      <c r="R583" s="196">
+        <v>20123</v>
+      </c>
+      <c r="S583" s="196">
+        <v>22622</v>
+      </c>
+      <c r="T583" s="196">
+        <v>16</v>
+      </c>
+      <c r="U583" s="196">
+        <v>6</v>
+      </c>
+      <c r="V583" s="196">
+        <v>48</v>
+      </c>
+      <c r="W583" s="196">
+        <v>20</v>
+      </c>
+      <c r="X583" s="196">
+        <v>64</v>
+      </c>
+      <c r="Y583" s="196">
+        <v>26</v>
+      </c>
+      <c r="Z583" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA583" s="196">
+        <v>17</v>
+      </c>
+      <c r="AB583" s="196">
+        <v>17</v>
+      </c>
+      <c r="AC583" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD583" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE583" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF583" s="196">
+        <v>13032</v>
+      </c>
+      <c r="AG583" s="196">
+        <v>13032</v>
+      </c>
+      <c r="AH583" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI583" s="196">
+        <v>2968276</v>
+      </c>
+      <c r="AJ583" s="196">
+        <v>5198</v>
+      </c>
+      <c r="AK583" s="197">
+        <v>2973474</v>
+      </c>
+    </row>
+    <row r="584" spans="1:37">
+      <c r="A584" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B584" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="C584" s="193"/>
+      <c r="D584" s="194" t="s">
+        <v>218</v>
+      </c>
+      <c r="E584" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F584" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G584" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H584" s="196">
+        <v>10</v>
+      </c>
+      <c r="I584" s="196">
+        <v>0</v>
+      </c>
+      <c r="J584" s="196">
+        <v>0</v>
+      </c>
+      <c r="K584" s="196">
+        <v>136</v>
+      </c>
+      <c r="L584" s="196">
+        <v>0</v>
+      </c>
+      <c r="M584" s="196">
+        <v>0</v>
+      </c>
+      <c r="N584" s="196">
+        <v>146</v>
+      </c>
+      <c r="O584" s="196">
+        <v>0</v>
+      </c>
+      <c r="P584" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q584" s="196">
+        <v>25</v>
+      </c>
+      <c r="R584" s="196">
+        <v>218</v>
+      </c>
+      <c r="S584" s="196">
+        <v>243</v>
+      </c>
+      <c r="T584" s="196">
+        <v>0</v>
+      </c>
+      <c r="U584" s="196">
+        <v>0</v>
+      </c>
+      <c r="V584" s="196">
+        <v>0</v>
+      </c>
+      <c r="W584" s="196">
+        <v>0</v>
+      </c>
+      <c r="X584" s="196">
+        <v>0</v>
+      </c>
+      <c r="Y584" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF584" s="196">
+        <v>155</v>
+      </c>
+      <c r="AG584" s="196">
+        <v>155</v>
+      </c>
+      <c r="AH584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI584" s="196">
+        <v>32192</v>
+      </c>
+      <c r="AJ584" s="196">
+        <v>0</v>
+      </c>
+      <c r="AK584" s="197">
+        <v>32192</v>
+      </c>
+    </row>
+    <row r="585" spans="1:37">
+      <c r="A585" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B585" s="192" t="s">
+        <v>95</v>
+      </c>
+      <c r="C585" s="193"/>
+      <c r="D585" s="194" t="s">
+        <v>219</v>
+      </c>
+      <c r="E585" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F585" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G585" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H585" s="196">
+        <v>354</v>
+      </c>
+      <c r="I585" s="196">
+        <v>0</v>
+      </c>
+      <c r="J585" s="196">
+        <v>0</v>
+      </c>
+      <c r="K585" s="196">
+        <v>2826</v>
+      </c>
+      <c r="L585" s="196">
+        <v>7</v>
+      </c>
+      <c r="M585" s="196">
+        <v>4</v>
+      </c>
+      <c r="N585" s="196">
+        <v>3180</v>
+      </c>
+      <c r="O585" s="196">
+        <v>7</v>
+      </c>
+      <c r="P585" s="196">
+        <v>4</v>
+      </c>
+      <c r="Q585" s="196">
+        <v>933</v>
+      </c>
+      <c r="R585" s="196">
+        <v>5537</v>
+      </c>
+      <c r="S585" s="196">
+        <v>6470</v>
+      </c>
+      <c r="T585" s="196">
+        <v>0</v>
+      </c>
+      <c r="U585" s="196">
+        <v>0</v>
+      </c>
+      <c r="V585" s="196">
+        <v>19</v>
+      </c>
+      <c r="W585" s="196">
+        <v>8</v>
+      </c>
+      <c r="X585" s="196">
+        <v>19</v>
+      </c>
+      <c r="Y585" s="196">
+        <v>8</v>
+      </c>
+      <c r="Z585" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA585" s="196">
+        <v>5</v>
+      </c>
+      <c r="AB585" s="196">
+        <v>5</v>
+      </c>
+      <c r="AC585" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD585" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE585" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF585" s="196">
+        <v>3470</v>
+      </c>
+      <c r="AG585" s="196">
+        <v>3470</v>
+      </c>
+      <c r="AH585" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI585" s="196">
+        <v>845890</v>
+      </c>
+      <c r="AJ585" s="196">
+        <v>1315</v>
+      </c>
+      <c r="AK585" s="197">
+        <v>847205</v>
+      </c>
+    </row>
+    <row r="586" spans="1:37">
+      <c r="A586" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B586" s="192" t="s">
+        <v>96</v>
+      </c>
+      <c r="C586" s="193"/>
+      <c r="D586" s="194" t="s">
+        <v>220</v>
+      </c>
+      <c r="E586" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F586" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G586" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H586" s="196">
+        <v>2127</v>
+      </c>
+      <c r="I586" s="196">
+        <v>26</v>
+      </c>
+      <c r="J586" s="196">
+        <v>0</v>
+      </c>
+      <c r="K586" s="196">
+        <v>17970</v>
+      </c>
+      <c r="L586" s="196">
+        <v>130</v>
+      </c>
+      <c r="M586" s="196">
+        <v>69</v>
+      </c>
+      <c r="N586" s="196">
+        <v>20097</v>
+      </c>
+      <c r="O586" s="196">
+        <v>156</v>
+      </c>
+      <c r="P586" s="196">
+        <v>69</v>
+      </c>
+      <c r="Q586" s="196">
+        <v>5024</v>
+      </c>
+      <c r="R586" s="196">
+        <v>31843</v>
+      </c>
+      <c r="S586" s="196">
+        <v>36867</v>
+      </c>
+      <c r="T586" s="196">
+        <v>57</v>
+      </c>
+      <c r="U586" s="196">
+        <v>30</v>
+      </c>
+      <c r="V586" s="196">
+        <v>295</v>
+      </c>
+      <c r="W586" s="196">
+        <v>153</v>
+      </c>
+      <c r="X586" s="196">
+        <v>352</v>
+      </c>
+      <c r="Y586" s="196">
+        <v>183</v>
+      </c>
+      <c r="Z586" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA586" s="196">
+        <v>91</v>
+      </c>
+      <c r="AB586" s="196">
+        <v>91</v>
+      </c>
+      <c r="AC586" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD586" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE586" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF586" s="196">
+        <v>21333</v>
+      </c>
+      <c r="AG586" s="196">
+        <v>21333</v>
+      </c>
+      <c r="AH586" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI586" s="196">
+        <v>5141838</v>
+      </c>
+      <c r="AJ586" s="196">
+        <v>31412</v>
+      </c>
+      <c r="AK586" s="197">
+        <v>5173250</v>
+      </c>
+    </row>
+    <row r="587" spans="1:37">
+      <c r="A587" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B587" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="C587" s="193"/>
+      <c r="D587" s="194" t="s">
+        <v>221</v>
+      </c>
+      <c r="E587" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F587" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G587" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H587" s="196">
+        <v>1079</v>
+      </c>
+      <c r="I587" s="196">
+        <v>27</v>
+      </c>
+      <c r="J587" s="196">
+        <v>0</v>
+      </c>
+      <c r="K587" s="196">
+        <v>15088</v>
+      </c>
+      <c r="L587" s="196">
+        <v>192</v>
+      </c>
+      <c r="M587" s="196">
+        <v>51</v>
+      </c>
+      <c r="N587" s="196">
+        <v>16167</v>
+      </c>
+      <c r="O587" s="196">
+        <v>219</v>
+      </c>
+      <c r="P587" s="196">
+        <v>51</v>
+      </c>
+      <c r="Q587" s="196">
+        <v>2625</v>
+      </c>
+      <c r="R587" s="196">
+        <v>24994</v>
+      </c>
+      <c r="S587" s="196">
+        <v>27619</v>
+      </c>
+      <c r="T587" s="196">
+        <v>73</v>
+      </c>
+      <c r="U587" s="196">
+        <v>30</v>
+      </c>
+      <c r="V587" s="196">
+        <v>478</v>
+      </c>
+      <c r="W587" s="196">
+        <v>209</v>
+      </c>
+      <c r="X587" s="196">
+        <v>551</v>
+      </c>
+      <c r="Y587" s="196">
+        <v>239</v>
+      </c>
+      <c r="Z587" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA587" s="196">
+        <v>62</v>
+      </c>
+      <c r="AB587" s="196">
+        <v>62</v>
+      </c>
+      <c r="AC587" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD587" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE587" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF587" s="196">
+        <v>18422</v>
+      </c>
+      <c r="AG587" s="196">
+        <v>18422</v>
+      </c>
+      <c r="AH587" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI587" s="196">
+        <v>3686493</v>
+      </c>
+      <c r="AJ587" s="196">
+        <v>27002</v>
+      </c>
+      <c r="AK587" s="197">
+        <v>3713495</v>
+      </c>
+    </row>
+    <row r="588" spans="1:37">
+      <c r="A588" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B588" s="192" t="s">
+        <v>98</v>
+      </c>
+      <c r="C588" s="193"/>
+      <c r="D588" s="194" t="s">
+        <v>222</v>
+      </c>
+      <c r="E588" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F588" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G588" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H588" s="196">
+        <v>4426</v>
+      </c>
+      <c r="I588" s="196">
+        <v>25</v>
+      </c>
+      <c r="J588" s="196">
+        <v>0</v>
+      </c>
+      <c r="K588" s="196">
+        <v>32836</v>
+      </c>
+      <c r="L588" s="196">
+        <v>149</v>
+      </c>
+      <c r="M588" s="196">
+        <v>37</v>
+      </c>
+      <c r="N588" s="196">
+        <v>37262</v>
+      </c>
+      <c r="O588" s="196">
+        <v>174</v>
+      </c>
+      <c r="P588" s="196">
+        <v>37</v>
+      </c>
+      <c r="Q588" s="196">
+        <v>11910</v>
+      </c>
+      <c r="R588" s="196">
+        <v>65402</v>
+      </c>
+      <c r="S588" s="196">
+        <v>77312</v>
+      </c>
+      <c r="T588" s="196">
+        <v>61</v>
+      </c>
+      <c r="U588" s="196">
+        <v>30</v>
+      </c>
+      <c r="V588" s="196">
+        <v>429</v>
+      </c>
+      <c r="W588" s="196">
+        <v>182</v>
+      </c>
+      <c r="X588" s="196">
+        <v>490</v>
+      </c>
+      <c r="Y588" s="196">
+        <v>212</v>
+      </c>
+      <c r="Z588" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA588" s="196">
+        <v>44</v>
+      </c>
+      <c r="AB588" s="196">
+        <v>44</v>
+      </c>
+      <c r="AC588" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD588" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE588" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF588" s="196">
+        <v>39125</v>
+      </c>
+      <c r="AG588" s="196">
+        <v>39125</v>
+      </c>
+      <c r="AH588" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI588" s="196">
+        <v>10210625</v>
+      </c>
+      <c r="AJ588" s="196">
+        <v>25591</v>
+      </c>
+      <c r="AK588" s="197">
+        <v>10236216</v>
+      </c>
+    </row>
+    <row r="589" spans="1:37">
+      <c r="A589" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B589" s="192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C589" s="193"/>
+      <c r="D589" s="194" t="s">
+        <v>223</v>
+      </c>
+      <c r="E589" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F589" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G589" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H589" s="196">
+        <v>628</v>
+      </c>
+      <c r="I589" s="196">
+        <v>17</v>
+      </c>
+      <c r="J589" s="196">
+        <v>0</v>
+      </c>
+      <c r="K589" s="196">
+        <v>4566</v>
+      </c>
+      <c r="L589" s="196">
+        <v>49</v>
+      </c>
+      <c r="M589" s="196">
+        <v>11</v>
+      </c>
+      <c r="N589" s="196">
+        <v>5194</v>
+      </c>
+      <c r="O589" s="196">
+        <v>66</v>
+      </c>
+      <c r="P589" s="196">
+        <v>11</v>
+      </c>
+      <c r="Q589" s="196">
+        <v>1728</v>
+      </c>
+      <c r="R589" s="196">
+        <v>9992</v>
+      </c>
+      <c r="S589" s="196">
+        <v>11720</v>
+      </c>
+      <c r="T589" s="196">
+        <v>43</v>
+      </c>
+      <c r="U589" s="196">
+        <v>19</v>
+      </c>
+      <c r="V589" s="196">
+        <v>126</v>
+      </c>
+      <c r="W589" s="196">
+        <v>60</v>
+      </c>
+      <c r="X589" s="196">
+        <v>169</v>
+      </c>
+      <c r="Y589" s="196">
+        <v>79</v>
+      </c>
+      <c r="Z589" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA589" s="196">
+        <v>14</v>
+      </c>
+      <c r="AB589" s="196">
+        <v>14</v>
+      </c>
+      <c r="AC589" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD589" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE589" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF589" s="196">
+        <v>5514</v>
+      </c>
+      <c r="AG589" s="196">
+        <v>5514</v>
+      </c>
+      <c r="AH589" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI589" s="196">
+        <v>1535560</v>
+      </c>
+      <c r="AJ589" s="196">
+        <v>9841</v>
+      </c>
+      <c r="AK589" s="197">
+        <v>1545401</v>
+      </c>
+    </row>
+    <row r="590" spans="1:37">
+      <c r="A590" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B590" s="192" t="s">
+        <v>100</v>
+      </c>
+      <c r="C590" s="193"/>
+      <c r="D590" s="194" t="s">
+        <v>224</v>
+      </c>
+      <c r="E590" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F590" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G590" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H590" s="196">
+        <v>415</v>
+      </c>
+      <c r="I590" s="196">
+        <v>1</v>
+      </c>
+      <c r="J590" s="196">
+        <v>0</v>
+      </c>
+      <c r="K590" s="196">
+        <v>3749</v>
+      </c>
+      <c r="L590" s="196">
+        <v>3</v>
+      </c>
+      <c r="M590" s="196">
+        <v>2</v>
+      </c>
+      <c r="N590" s="196">
+        <v>4164</v>
+      </c>
+      <c r="O590" s="196">
+        <v>4</v>
+      </c>
+      <c r="P590" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q590" s="196">
+        <v>1050</v>
+      </c>
+      <c r="R590" s="196">
+        <v>7893</v>
+      </c>
+      <c r="S590" s="196">
+        <v>8943</v>
+      </c>
+      <c r="T590" s="196">
+        <v>4</v>
+      </c>
+      <c r="U590" s="196">
+        <v>1</v>
+      </c>
+      <c r="V590" s="196">
+        <v>5</v>
+      </c>
+      <c r="W590" s="196">
+        <v>4</v>
+      </c>
+      <c r="X590" s="196">
+        <v>9</v>
+      </c>
+      <c r="Y590" s="196">
+        <v>5</v>
+      </c>
+      <c r="Z590" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA590" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB590" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC590" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD590" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE590" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF590" s="196">
+        <v>4428</v>
+      </c>
+      <c r="AG590" s="196">
+        <v>4428</v>
+      </c>
+      <c r="AH590" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI590" s="196">
+        <v>1106727</v>
+      </c>
+      <c r="AJ590" s="196">
+        <v>1018</v>
+      </c>
+      <c r="AK590" s="197">
+        <v>1107745</v>
+      </c>
+    </row>
+    <row r="591" spans="1:37">
+      <c r="A591" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B591" s="192" t="s">
+        <v>101</v>
+      </c>
+      <c r="C591" s="193"/>
+      <c r="D591" s="194" t="s">
+        <v>225</v>
+      </c>
+      <c r="E591" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F591" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G591" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H591" s="196">
+        <v>83</v>
+      </c>
+      <c r="I591" s="196">
+        <v>0</v>
+      </c>
+      <c r="J591" s="196">
+        <v>0</v>
+      </c>
+      <c r="K591" s="196">
+        <v>901</v>
+      </c>
+      <c r="L591" s="196">
+        <v>1</v>
+      </c>
+      <c r="M591" s="196">
+        <v>0</v>
+      </c>
+      <c r="N591" s="196">
+        <v>984</v>
+      </c>
+      <c r="O591" s="196">
+        <v>1</v>
+      </c>
+      <c r="P591" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q591" s="196">
+        <v>195</v>
+      </c>
+      <c r="R591" s="196">
+        <v>1458</v>
+      </c>
+      <c r="S591" s="196">
+        <v>1653</v>
+      </c>
+      <c r="T591" s="196">
+        <v>0</v>
+      </c>
+      <c r="U591" s="196">
+        <v>0</v>
+      </c>
+      <c r="V591" s="196">
+        <v>1</v>
+      </c>
+      <c r="W591" s="196">
+        <v>1</v>
+      </c>
+      <c r="X591" s="196">
+        <v>1</v>
+      </c>
+      <c r="Y591" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z591" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA591" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB591" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC591" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD591" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE591" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF591" s="196">
+        <v>1036</v>
+      </c>
+      <c r="AG591" s="196">
+        <v>1036</v>
+      </c>
+      <c r="AH591" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI591" s="196">
+        <v>229531</v>
+      </c>
+      <c r="AJ591" s="196">
+        <v>160</v>
+      </c>
+      <c r="AK591" s="197">
+        <v>229691</v>
+      </c>
+    </row>
+    <row r="592" spans="1:37">
+      <c r="A592" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B592" s="192" t="s">
+        <v>102</v>
+      </c>
+      <c r="C592" s="193"/>
+      <c r="D592" s="194" t="s">
+        <v>226</v>
+      </c>
+      <c r="E592" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F592" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G592" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H592" s="196">
+        <v>7001</v>
+      </c>
+      <c r="I592" s="196">
+        <v>63</v>
+      </c>
+      <c r="J592" s="196">
+        <v>1</v>
+      </c>
+      <c r="K592" s="196">
+        <v>42648</v>
+      </c>
+      <c r="L592" s="196">
+        <v>720</v>
+      </c>
+      <c r="M592" s="196">
+        <v>182</v>
+      </c>
+      <c r="N592" s="196">
+        <v>49649</v>
+      </c>
+      <c r="O592" s="196">
+        <v>783</v>
+      </c>
+      <c r="P592" s="196">
+        <v>183</v>
+      </c>
+      <c r="Q592" s="196">
+        <v>19254</v>
+      </c>
+      <c r="R592" s="196">
+        <v>93879</v>
+      </c>
+      <c r="S592" s="196">
+        <v>113133</v>
+      </c>
+      <c r="T592" s="196">
+        <v>155</v>
+      </c>
+      <c r="U592" s="196">
+        <v>67</v>
+      </c>
+      <c r="V592" s="196">
+        <v>2009</v>
+      </c>
+      <c r="W592" s="196">
+        <v>802</v>
+      </c>
+      <c r="X592" s="196">
+        <v>2164</v>
+      </c>
+      <c r="Y592" s="196">
+        <v>869</v>
+      </c>
+      <c r="Z592" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA592" s="196">
+        <v>221</v>
+      </c>
+      <c r="AB592" s="196">
+        <v>222</v>
+      </c>
+      <c r="AC592" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD592" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE592" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF592" s="196">
+        <v>57754</v>
+      </c>
+      <c r="AG592" s="196">
+        <v>57754</v>
+      </c>
+      <c r="AH592" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI592" s="196">
+        <v>15341627</v>
+      </c>
+      <c r="AJ592" s="196">
+        <v>124579</v>
+      </c>
+      <c r="AK592" s="197">
+        <v>15466206</v>
+      </c>
+    </row>
+    <row r="593" spans="1:37">
+      <c r="A593" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B593" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="C593" s="193"/>
+      <c r="D593" s="194" t="s">
+        <v>227</v>
+      </c>
+      <c r="E593" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F593" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G593" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H593" s="196">
+        <v>246</v>
+      </c>
+      <c r="I593" s="196">
+        <v>0</v>
+      </c>
+      <c r="J593" s="196">
+        <v>0</v>
+      </c>
+      <c r="K593" s="196">
+        <v>2406</v>
+      </c>
+      <c r="L593" s="196">
+        <v>2</v>
+      </c>
+      <c r="M593" s="196">
+        <v>2</v>
+      </c>
+      <c r="N593" s="196">
+        <v>2652</v>
+      </c>
+      <c r="O593" s="196">
+        <v>2</v>
+      </c>
+      <c r="P593" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q593" s="196">
+        <v>587</v>
+      </c>
+      <c r="R593" s="196">
+        <v>4016</v>
+      </c>
+      <c r="S593" s="196">
+        <v>4603</v>
+      </c>
+      <c r="T593" s="196">
+        <v>0</v>
+      </c>
+      <c r="U593" s="196">
+        <v>0</v>
+      </c>
+      <c r="V593" s="196">
+        <v>9</v>
+      </c>
+      <c r="W593" s="196">
+        <v>3</v>
+      </c>
+      <c r="X593" s="196">
+        <v>9</v>
+      </c>
+      <c r="Y593" s="196">
+        <v>3</v>
+      </c>
+      <c r="Z593" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA593" s="196">
+        <v>3</v>
+      </c>
+      <c r="AB593" s="196">
+        <v>3</v>
+      </c>
+      <c r="AC593" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD593" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE593" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF593" s="196">
+        <v>2804</v>
+      </c>
+      <c r="AG593" s="196">
+        <v>2804</v>
+      </c>
+      <c r="AH593" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI593" s="196">
+        <v>606006</v>
+      </c>
+      <c r="AJ593" s="196">
+        <v>318</v>
+      </c>
+      <c r="AK593" s="197">
+        <v>606324</v>
+      </c>
+    </row>
+    <row r="594" spans="1:37">
+      <c r="A594" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B594" s="192" t="s">
+        <v>104</v>
+      </c>
+      <c r="C594" s="193"/>
+      <c r="D594" s="194" t="s">
+        <v>228</v>
+      </c>
+      <c r="E594" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F594" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G594" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H594" s="196">
+        <v>2462</v>
+      </c>
+      <c r="I594" s="196">
+        <v>27</v>
+      </c>
+      <c r="J594" s="196">
+        <v>1</v>
+      </c>
+      <c r="K594" s="196">
+        <v>31181</v>
+      </c>
+      <c r="L594" s="196">
+        <v>286</v>
+      </c>
+      <c r="M594" s="196">
+        <v>208</v>
+      </c>
+      <c r="N594" s="196">
+        <v>33643</v>
+      </c>
+      <c r="O594" s="196">
+        <v>313</v>
+      </c>
+      <c r="P594" s="196">
+        <v>209</v>
+      </c>
+      <c r="Q594" s="196">
+        <v>6265</v>
+      </c>
+      <c r="R594" s="196">
+        <v>59153</v>
+      </c>
+      <c r="S594" s="196">
+        <v>65418</v>
+      </c>
+      <c r="T594" s="196">
+        <v>69</v>
+      </c>
+      <c r="U594" s="196">
+        <v>34</v>
+      </c>
+      <c r="V594" s="196">
+        <v>707</v>
+      </c>
+      <c r="W594" s="196">
+        <v>332</v>
+      </c>
+      <c r="X594" s="196">
+        <v>776</v>
+      </c>
+      <c r="Y594" s="196">
+        <v>366</v>
+      </c>
+      <c r="Z594" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA594" s="196">
+        <v>268</v>
+      </c>
+      <c r="AB594" s="196">
+        <v>270</v>
+      </c>
+      <c r="AC594" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD594" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE594" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF594" s="196">
+        <v>35969</v>
+      </c>
+      <c r="AG594" s="196">
+        <v>35969</v>
+      </c>
+      <c r="AH594" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI594" s="196">
+        <v>8711454</v>
+      </c>
+      <c r="AJ594" s="196">
+        <v>80426</v>
+      </c>
+      <c r="AK594" s="197">
+        <v>8791880</v>
+      </c>
+    </row>
+    <row r="595" spans="1:37">
+      <c r="A595" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B595" s="192" t="s">
+        <v>105</v>
+      </c>
+      <c r="C595" s="193"/>
+      <c r="D595" s="194" t="s">
+        <v>229</v>
+      </c>
+      <c r="E595" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F595" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G595" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H595" s="196">
+        <v>682</v>
+      </c>
+      <c r="I595" s="196">
+        <v>45</v>
+      </c>
+      <c r="J595" s="196">
+        <v>1</v>
+      </c>
+      <c r="K595" s="196">
+        <v>9119</v>
+      </c>
+      <c r="L595" s="196">
+        <v>133</v>
+      </c>
+      <c r="M595" s="196">
+        <v>49</v>
+      </c>
+      <c r="N595" s="196">
+        <v>9801</v>
+      </c>
+      <c r="O595" s="196">
+        <v>178</v>
+      </c>
+      <c r="P595" s="196">
+        <v>50</v>
+      </c>
+      <c r="Q595" s="196">
+        <v>1754</v>
+      </c>
+      <c r="R595" s="196">
+        <v>15484</v>
+      </c>
+      <c r="S595" s="196">
+        <v>17238</v>
+      </c>
+      <c r="T595" s="196">
+        <v>116</v>
+      </c>
+      <c r="U595" s="196">
+        <v>78</v>
+      </c>
+      <c r="V595" s="196">
+        <v>357</v>
+      </c>
+      <c r="W595" s="196">
+        <v>212</v>
+      </c>
+      <c r="X595" s="196">
+        <v>473</v>
+      </c>
+      <c r="Y595" s="196">
+        <v>290</v>
+      </c>
+      <c r="Z595" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA595" s="196">
+        <v>70</v>
+      </c>
+      <c r="AB595" s="196">
+        <v>71</v>
+      </c>
+      <c r="AC595" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD595" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE595" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF595" s="196">
+        <v>11481</v>
+      </c>
+      <c r="AG595" s="196">
+        <v>11481</v>
+      </c>
+      <c r="AH595" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI595" s="196">
+        <v>2394594</v>
+      </c>
+      <c r="AJ595" s="196">
+        <v>39029</v>
+      </c>
+      <c r="AK595" s="197">
+        <v>2433623</v>
+      </c>
+    </row>
+    <row r="596" spans="1:37">
+      <c r="A596" s="250">
+        <v>43191</v>
+      </c>
+      <c r="B596" s="192" t="s">
+        <v>106</v>
+      </c>
+      <c r="C596" s="193"/>
+      <c r="D596" s="194" t="s">
+        <v>230</v>
+      </c>
+      <c r="E596" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="F596" s="192">
+        <v>2018</v>
+      </c>
+      <c r="G596" s="195">
+        <v>43191</v>
+      </c>
+      <c r="H596" s="196">
+        <v>731</v>
+      </c>
+      <c r="I596" s="196">
+        <v>4</v>
+      </c>
+      <c r="J596" s="196">
+        <v>0</v>
+      </c>
+      <c r="K596" s="196">
+        <v>5278</v>
+      </c>
+      <c r="L596" s="196">
+        <v>28</v>
+      </c>
+      <c r="M596" s="196">
+        <v>4</v>
+      </c>
+      <c r="N596" s="196">
+        <v>6009</v>
+      </c>
+      <c r="O596" s="196">
+        <v>32</v>
+      </c>
+      <c r="P596" s="196">
+        <v>4</v>
+      </c>
+      <c r="Q596" s="196">
+        <v>2002</v>
+      </c>
+      <c r="R596" s="196">
+        <v>10787</v>
+      </c>
+      <c r="S596" s="196">
+        <v>12789</v>
+      </c>
+      <c r="T596" s="196">
+        <v>10</v>
+      </c>
+      <c r="U596" s="196">
+        <v>5</v>
+      </c>
+      <c r="V596" s="196">
+        <v>86</v>
+      </c>
+      <c r="W596" s="196">
+        <v>44</v>
+      </c>
+      <c r="X596" s="196">
+        <v>96</v>
+      </c>
+      <c r="Y596" s="196">
+        <v>49</v>
+      </c>
+      <c r="Z596" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA596" s="196">
+        <v>4</v>
+      </c>
+      <c r="AB596" s="196">
+        <v>4</v>
+      </c>
+      <c r="AC596" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD596" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE596" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF596" s="196">
+        <v>6429</v>
+      </c>
+      <c r="AG596" s="196">
+        <v>6429</v>
+      </c>
+      <c r="AH596" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI596" s="196">
+        <v>1698989</v>
+      </c>
+      <c r="AJ596" s="196">
+        <v>4462</v>
+      </c>
+      <c r="AK596" s="197">
+        <v>1703451</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="32">
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AE4:AE5"/>
@@ -68400,13 +74986,13 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:Y3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:AK537">
-    <cfRule type="containsBlanks" dxfId="41" priority="2">
+  <conditionalFormatting sqref="H7:AK494 H496:AK596">
+    <cfRule type="containsBlanks" dxfId="43" priority="2">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE7:AJ537">
-    <cfRule type="containsBlanks" dxfId="40" priority="1">
+  <conditionalFormatting sqref="AE7:AJ494 AE496:AJ596">
+    <cfRule type="containsBlanks" dxfId="42" priority="1">
       <formula>LEN(TRIM(AE7))=0</formula>
     </cfRule>
   </conditionalFormatting>
